--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,13 +711,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59900</v>
+        <v>59500</v>
       </c>
       <c r="E8" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="F8" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="G8" s="3">
         <v>5200</v>
@@ -738,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>93100</v>
+        <v>92400</v>
       </c>
       <c r="E9" s="3">
-        <v>53000</v>
+        <v>52700</v>
       </c>
       <c r="F9" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="G9" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-33100</v>
+        <v>-32900</v>
       </c>
       <c r="E10" s="3">
-        <v>-22600</v>
+        <v>-22400</v>
       </c>
       <c r="F10" s="3">
         <v>-1200</v>
@@ -805,10 +805,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="E12" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="F12" s="3">
         <v>2300</v>
@@ -859,22 +859,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>63700</v>
+        <v>63300</v>
       </c>
       <c r="E14" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="F14" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G14" s="3">
         <v>-14800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-14900</v>
       </c>
       <c r="H14" s="3">
         <v>-3700</v>
       </c>
       <c r="I14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J14" s="3">
         <v>2000</v>
@@ -923,19 +923,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>341300</v>
+        <v>338900</v>
       </c>
       <c r="E17" s="3">
-        <v>185800</v>
+        <v>184500</v>
       </c>
       <c r="F17" s="3">
-        <v>42900</v>
+        <v>42600</v>
       </c>
       <c r="G17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H17" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I17" s="3">
         <v>4800</v>
@@ -950,19 +950,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-281300</v>
+        <v>-279400</v>
       </c>
       <c r="E18" s="3">
-        <v>-155300</v>
+        <v>-154300</v>
       </c>
       <c r="F18" s="3">
-        <v>-27400</v>
+        <v>-27200</v>
       </c>
       <c r="G18" s="3">
         <v>3600</v>
       </c>
       <c r="H18" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -990,10 +990,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>187600</v>
+        <v>186300</v>
       </c>
       <c r="E20" s="3">
-        <v>1652400</v>
+        <v>1641000</v>
       </c>
       <c r="F20" s="3">
         <v>-600</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-84800</v>
+        <v>-84100</v>
       </c>
       <c r="E21" s="3">
-        <v>1502000</v>
+        <v>1491800</v>
       </c>
       <c r="F21" s="3">
-        <v>-25500</v>
+        <v>-25300</v>
       </c>
       <c r="G21" s="3">
         <v>4800</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-94000</v>
+        <v>-93300</v>
       </c>
       <c r="E23" s="3">
-        <v>1495400</v>
+        <v>1485200</v>
       </c>
       <c r="F23" s="3">
-        <v>-28000</v>
+        <v>-27800</v>
       </c>
       <c r="G23" s="3">
         <v>3600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
       </c>
       <c r="J23" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1152,13 +1152,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-95700</v>
+        <v>-95100</v>
       </c>
       <c r="E26" s="3">
-        <v>1495400</v>
+        <v>1485200</v>
       </c>
       <c r="F26" s="3">
-        <v>-28000</v>
+        <v>-27800</v>
       </c>
       <c r="G26" s="3">
         <v>3200</v>
@@ -1170,7 +1170,7 @@
         <v>300</v>
       </c>
       <c r="J26" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-93000</v>
+        <v>-92300</v>
       </c>
       <c r="E27" s="3">
-        <v>1496600</v>
+        <v>1486400</v>
       </c>
       <c r="F27" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="G27" s="3">
         <v>3200</v>
@@ -1197,7 +1197,7 @@
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1314,10 +1314,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-187600</v>
+        <v>-186300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1652400</v>
+        <v>-1641000</v>
       </c>
       <c r="F32" s="3">
         <v>600</v>
@@ -1341,13 +1341,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-93800</v>
+        <v>-93200</v>
       </c>
       <c r="E33" s="3">
-        <v>1496200</v>
+        <v>1485900</v>
       </c>
       <c r="F33" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="G33" s="3">
         <v>3200</v>
@@ -1359,7 +1359,7 @@
         <v>300</v>
       </c>
       <c r="J33" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,13 +1395,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-93800</v>
+        <v>-93200</v>
       </c>
       <c r="E35" s="3">
-        <v>1496200</v>
+        <v>1485900</v>
       </c>
       <c r="F35" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="G35" s="3">
         <v>3200</v>
@@ -1413,7 +1413,7 @@
         <v>300</v>
       </c>
       <c r="J35" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,16 +1480,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1382700</v>
+        <v>1373200</v>
       </c>
       <c r="E41" s="3">
-        <v>1538700</v>
+        <v>1528200</v>
       </c>
       <c r="F41" s="3">
-        <v>30700</v>
+        <v>30500</v>
       </c>
       <c r="G41" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H41" s="3">
         <v>4400</v>
@@ -1507,10 +1507,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>271600</v>
+        <v>269700</v>
       </c>
       <c r="E42" s="3">
-        <v>392900</v>
+        <v>390200</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33400</v>
+        <v>33200</v>
       </c>
       <c r="E43" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="F43" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="G43" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -1561,16 +1561,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56400</v>
+        <v>56000</v>
       </c>
       <c r="E44" s="3">
-        <v>48800</v>
+        <v>48500</v>
       </c>
       <c r="F44" s="3">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="G44" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="H44" s="3">
         <v>4700</v>
@@ -1588,10 +1588,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E45" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3">
         <v>3600</v>
@@ -1615,19 +1615,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1759900</v>
+        <v>1747900</v>
       </c>
       <c r="E46" s="3">
-        <v>2017900</v>
+        <v>2004000</v>
       </c>
       <c r="F46" s="3">
-        <v>51200</v>
+        <v>50900</v>
       </c>
       <c r="G46" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="H46" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I46" s="3">
         <v>1600</v>
@@ -1642,22 +1642,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>137100</v>
+        <v>136200</v>
       </c>
       <c r="E47" s="3">
-        <v>83300</v>
+        <v>82700</v>
       </c>
       <c r="F47" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G47" s="3">
         <v>6600</v>
       </c>
       <c r="H47" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="I47" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="J47" s="3">
         <v>7000</v>
@@ -1669,22 +1669,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>253200</v>
+        <v>251400</v>
       </c>
       <c r="E48" s="3">
-        <v>213500</v>
+        <v>212100</v>
       </c>
       <c r="F48" s="3">
-        <v>165300</v>
+        <v>164100</v>
       </c>
       <c r="G48" s="3">
-        <v>72000</v>
+        <v>71600</v>
       </c>
       <c r="H48" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="I48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J48" s="3">
         <v>1700</v>
@@ -1696,19 +1696,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>319700</v>
+        <v>317500</v>
       </c>
       <c r="E49" s="3">
-        <v>366500</v>
+        <v>364000</v>
       </c>
       <c r="F49" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="G49" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="H49" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="I49" s="3">
         <v>2600</v>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2469900</v>
+        <v>2452900</v>
       </c>
       <c r="E54" s="3">
-        <v>2681200</v>
+        <v>2662800</v>
       </c>
       <c r="F54" s="3">
-        <v>235300</v>
+        <v>233700</v>
       </c>
       <c r="G54" s="3">
-        <v>129600</v>
+        <v>128700</v>
       </c>
       <c r="H54" s="3">
-        <v>55000</v>
+        <v>54600</v>
       </c>
       <c r="I54" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="J54" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,16 +1884,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54000</v>
+        <v>53600</v>
       </c>
       <c r="E57" s="3">
-        <v>45300</v>
+        <v>45000</v>
       </c>
       <c r="F57" s="3">
-        <v>42600</v>
+        <v>42300</v>
       </c>
       <c r="G57" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>211300</v>
+        <v>209800</v>
       </c>
       <c r="E59" s="3">
-        <v>381700</v>
+        <v>379100</v>
       </c>
       <c r="F59" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>265300</v>
+        <v>263500</v>
       </c>
       <c r="E60" s="3">
-        <v>427000</v>
+        <v>424000</v>
       </c>
       <c r="F60" s="3">
-        <v>42700</v>
+        <v>42400</v>
       </c>
       <c r="G60" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="H60" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I60" s="3">
         <v>3000</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="E62" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="F62" s="3">
         <v>2500</v>
@@ -2034,7 +2034,7 @@
         <v>1900</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
@@ -2127,22 +2127,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>274900</v>
+        <v>273000</v>
       </c>
       <c r="E66" s="3">
-        <v>436800</v>
+        <v>433800</v>
       </c>
       <c r="F66" s="3">
-        <v>44900</v>
+        <v>44600</v>
       </c>
       <c r="G66" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="H66" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I66" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J66" s="3">
         <v>1400</v>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1365300</v>
+        <v>1356000</v>
       </c>
       <c r="E72" s="3">
-        <v>1459100</v>
+        <v>1449100</v>
       </c>
       <c r="F72" s="3">
-        <v>-33900</v>
+        <v>-33600</v>
       </c>
       <c r="G72" s="3">
         <v>-500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I72" s="3">
         <v>-4700</v>
       </c>
       <c r="J72" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2195000</v>
+        <v>2179900</v>
       </c>
       <c r="E76" s="3">
-        <v>2244400</v>
+        <v>2229000</v>
       </c>
       <c r="F76" s="3">
-        <v>190400</v>
+        <v>189100</v>
       </c>
       <c r="G76" s="3">
-        <v>110800</v>
+        <v>110000</v>
       </c>
       <c r="H76" s="3">
-        <v>43200</v>
+        <v>42900</v>
       </c>
       <c r="I76" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="J76" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,13 +2469,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-93800</v>
+        <v>-93200</v>
       </c>
       <c r="E81" s="3">
-        <v>1496200</v>
+        <v>1485900</v>
       </c>
       <c r="F81" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="G81" s="3">
         <v>3200</v>
@@ -2487,7 +2487,7 @@
         <v>300</v>
       </c>
       <c r="J81" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2671,10 +2671,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-182700</v>
+        <v>-181500</v>
       </c>
       <c r="E89" s="3">
-        <v>-167100</v>
+        <v>-165900</v>
       </c>
       <c r="F89" s="3">
         <v>-9600</v>
@@ -2683,7 +2683,7 @@
         <v>-7100</v>
       </c>
       <c r="H89" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="I89" s="3">
         <v>-1800</v>
@@ -2711,19 +2711,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40300</v>
+        <v>-40000</v>
       </c>
       <c r="E91" s="3">
-        <v>-49600</v>
+        <v>-49300</v>
       </c>
       <c r="F91" s="3">
-        <v>-260000</v>
+        <v>-258200</v>
       </c>
       <c r="G91" s="3">
-        <v>-54800</v>
+        <v>-54400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
@@ -2792,19 +2792,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="E94" s="3">
-        <v>-773800</v>
+        <v>-768400</v>
       </c>
       <c r="F94" s="3">
-        <v>-120400</v>
+        <v>-119600</v>
       </c>
       <c r="G94" s="3">
-        <v>-49700</v>
+        <v>-49400</v>
       </c>
       <c r="H94" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="I94" s="3">
         <v>-1900</v>
@@ -2943,22 +2943,22 @@
         <v>-7000</v>
       </c>
       <c r="E100" s="3">
-        <v>2381700</v>
+        <v>2365400</v>
       </c>
       <c r="F100" s="3">
-        <v>156600</v>
+        <v>155500</v>
       </c>
       <c r="G100" s="3">
-        <v>64200</v>
+        <v>63800</v>
       </c>
       <c r="H100" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="I100" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J100" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2970,7 +2970,7 @@
         <v>7800</v>
       </c>
       <c r="E101" s="3">
-        <v>67200</v>
+        <v>66700</v>
       </c>
       <c r="F101" s="3">
         <v>-5200</v>
@@ -2994,16 +2994,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-156100</v>
+        <v>-155000</v>
       </c>
       <c r="E102" s="3">
-        <v>1508000</v>
+        <v>1497700</v>
       </c>
       <c r="F102" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G102" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CRON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E8" s="3">
         <v>59500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>92400</v>
+        <v>117200</v>
       </c>
       <c r="E9" s="3">
-        <v>52700</v>
+        <v>151700</v>
       </c>
       <c r="F9" s="3">
+        <v>68200</v>
+      </c>
+      <c r="G9" s="3">
         <v>16700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-32900</v>
+        <v>-22300</v>
       </c>
       <c r="E10" s="3">
-        <v>-22400</v>
+        <v>-92200</v>
       </c>
       <c r="F10" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,23 +811,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25900</v>
+        <v>29700</v>
       </c>
       <c r="E12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F12" s="3">
         <v>15500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>463400</v>
+      </c>
+      <c r="E14" s="3">
         <v>63300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-14700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-14800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3700</v>
+        <v>5700</v>
       </c>
       <c r="E15" s="3">
-        <v>2700</v>
+        <v>7300</v>
       </c>
       <c r="F15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338900</v>
+        <v>809200</v>
       </c>
       <c r="E17" s="3">
-        <v>184500</v>
+        <v>339100</v>
       </c>
       <c r="F17" s="3">
+        <v>225600</v>
+      </c>
+      <c r="G17" s="3">
         <v>42600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-279400</v>
+        <v>-714400</v>
       </c>
       <c r="E18" s="3">
-        <v>-154300</v>
+        <v>-279600</v>
       </c>
       <c r="F18" s="3">
+        <v>-195400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-27200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,74 +1016,81 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>186300</v>
+        <v>208300</v>
       </c>
       <c r="E20" s="3">
-        <v>1641000</v>
+        <v>186400</v>
       </c>
       <c r="F20" s="3">
+        <v>1682700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-486300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-84100</v>
       </c>
-      <c r="E21" s="3">
-        <v>1491800</v>
-      </c>
       <c r="F21" s="3">
+        <v>1492300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-25300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1064,63 +1103,72 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-93300</v>
+        <v>-506100</v>
       </c>
       <c r="E23" s="3">
-        <v>1485200</v>
+        <v>-93400</v>
       </c>
       <c r="F23" s="3">
+        <v>1485800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-27800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-505500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95100</v>
       </c>
-      <c r="E26" s="3">
-        <v>1485200</v>
-      </c>
       <c r="F26" s="3">
+        <v>1485800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-27800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-92300</v>
+        <v>-504100</v>
       </c>
       <c r="E27" s="3">
-        <v>1486400</v>
+        <v>-92400</v>
       </c>
       <c r="F27" s="3">
+        <v>1486900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-27600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,21 +1283,24 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-186300</v>
+        <v>-208300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1641000</v>
+        <v>-186400</v>
       </c>
       <c r="F32" s="3">
+        <v>-1682700</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-504800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-93200</v>
       </c>
-      <c r="E33" s="3">
-        <v>1485900</v>
-      </c>
       <c r="F33" s="3">
+        <v>1486500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-27600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-504800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-93200</v>
       </c>
-      <c r="E35" s="3">
-        <v>1485900</v>
-      </c>
       <c r="F35" s="3">
+        <v>1486500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-27600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,49 +1559,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1373200</v>
+        <v>1130300</v>
       </c>
       <c r="E41" s="3">
-        <v>1528200</v>
+        <v>1373700</v>
       </c>
       <c r="F41" s="3">
+        <v>1528800</v>
+      </c>
+      <c r="G41" s="3">
         <v>30500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>269700</v>
+        <v>150000</v>
       </c>
       <c r="E42" s="3">
-        <v>390200</v>
+        <v>269900</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>390400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E43" s="3">
         <v>33200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56000</v>
+        <v>41800</v>
       </c>
       <c r="E44" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F44" s="3">
         <v>48500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4700</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1747900</v>
+        <v>1375900</v>
       </c>
       <c r="E46" s="3">
-        <v>2004000</v>
+        <v>1748600</v>
       </c>
       <c r="F46" s="3">
+        <v>2004800</v>
+      </c>
+      <c r="G46" s="3">
         <v>50900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E47" s="3">
         <v>136200</v>
       </c>
-      <c r="E47" s="3">
-        <v>82700</v>
-      </c>
       <c r="F47" s="3">
+        <v>82800</v>
+      </c>
+      <c r="G47" s="3">
         <v>10100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>251400</v>
+        <v>105700</v>
       </c>
       <c r="E48" s="3">
-        <v>212100</v>
+        <v>251500</v>
       </c>
       <c r="F48" s="3">
-        <v>164100</v>
+        <v>212200</v>
       </c>
       <c r="G48" s="3">
+        <v>164200</v>
+      </c>
+      <c r="H48" s="3">
         <v>71600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>317500</v>
+        <v>24400</v>
       </c>
       <c r="E49" s="3">
-        <v>364000</v>
+        <v>317600</v>
       </c>
       <c r="F49" s="3">
+        <v>364100</v>
+      </c>
+      <c r="G49" s="3">
         <v>26500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>16600</v>
       </c>
       <c r="H49" s="3">
         <v>16600</v>
       </c>
       <c r="I49" s="3">
-        <v>2600</v>
+        <v>16600</v>
       </c>
       <c r="J49" s="3">
         <v>2600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,9 +1886,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1797,9 +1916,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2452900</v>
+        <v>1781100</v>
       </c>
       <c r="E54" s="3">
-        <v>2662800</v>
+        <v>2453900</v>
       </c>
       <c r="F54" s="3">
-        <v>233700</v>
+        <v>2663900</v>
       </c>
       <c r="G54" s="3">
+        <v>233800</v>
+      </c>
+      <c r="H54" s="3">
         <v>128700</v>
       </c>
-      <c r="H54" s="3">
-        <v>54600</v>
-      </c>
       <c r="I54" s="3">
+        <v>54700</v>
+      </c>
+      <c r="J54" s="3">
         <v>18800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,35 +2007,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53600</v>
+        <v>14300</v>
       </c>
       <c r="E57" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F57" s="3">
         <v>45000</v>
       </c>
-      <c r="F57" s="3">
-        <v>42300</v>
-      </c>
       <c r="G57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="H57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1916,78 +2049,87 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>26700</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209800</v>
+        <v>55000</v>
       </c>
       <c r="E59" s="3">
-        <v>379100</v>
+        <v>209900</v>
       </c>
       <c r="F59" s="3">
+        <v>379200</v>
+      </c>
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>263500</v>
+        <v>69300</v>
       </c>
       <c r="E60" s="3">
-        <v>424000</v>
+        <v>263600</v>
       </c>
       <c r="F60" s="3">
+        <v>424200</v>
+      </c>
+      <c r="G60" s="3">
         <v>42400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2001,47 +2143,53 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>6800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E62" s="3">
         <v>10800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>273000</v>
+        <v>77100</v>
       </c>
       <c r="E66" s="3">
-        <v>433800</v>
+        <v>273100</v>
       </c>
       <c r="F66" s="3">
+        <v>434000</v>
+      </c>
+      <c r="G66" s="3">
         <v>44600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18700</v>
       </c>
-      <c r="H66" s="3">
-        <v>11700</v>
-      </c>
       <c r="I66" s="3">
-        <v>3800</v>
+        <v>11800</v>
       </c>
       <c r="J66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1356000</v>
+        <v>840300</v>
       </c>
       <c r="E72" s="3">
-        <v>1449100</v>
+        <v>1356500</v>
       </c>
       <c r="F72" s="3">
+        <v>1449700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-33600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2179900</v>
+        <v>1704000</v>
       </c>
       <c r="E76" s="3">
-        <v>2229000</v>
+        <v>2180800</v>
       </c>
       <c r="F76" s="3">
-        <v>189100</v>
+        <v>2229900</v>
       </c>
       <c r="G76" s="3">
-        <v>110000</v>
+        <v>189200</v>
       </c>
       <c r="H76" s="3">
+        <v>110100</v>
+      </c>
+      <c r="I76" s="3">
         <v>42900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-504800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-93200</v>
       </c>
-      <c r="E81" s="3">
-        <v>1485900</v>
-      </c>
       <c r="F81" s="3">
+        <v>1486500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-27600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E83" s="3">
         <v>9000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-195800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-181500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-165900</v>
-      </c>
       <c r="F89" s="3">
+        <v>-166000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-8200</v>
-      </c>
       <c r="I89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-258200</v>
-      </c>
       <c r="G91" s="3">
+        <v>-258300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-54400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E94" s="3">
         <v>25700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-768400</v>
-      </c>
       <c r="F94" s="3">
-        <v>-119600</v>
+        <v>-768700</v>
       </c>
       <c r="G94" s="3">
+        <v>-119700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-49400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,51 +3175,57 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
-        <v>2365400</v>
-      </c>
       <c r="F100" s="3">
-        <v>155500</v>
+        <v>2366300</v>
       </c>
       <c r="G100" s="3">
+        <v>155600</v>
+      </c>
+      <c r="H100" s="3">
         <v>63800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E101" s="3">
         <v>7800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>66700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
@@ -2987,34 +3235,40 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-243500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-155000</v>
       </c>
-      <c r="E102" s="3">
-        <v>1497700</v>
-      </c>
       <c r="F102" s="3">
-        <v>21100</v>
+        <v>1498300</v>
       </c>
       <c r="G102" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H102" s="3">
         <v>7300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CRON</t>
   </si>
@@ -714,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>94900</v>
+        <v>97100</v>
       </c>
       <c r="E8" s="3">
-        <v>59500</v>
+        <v>60900</v>
       </c>
       <c r="F8" s="3">
-        <v>30300</v>
+        <v>31000</v>
       </c>
       <c r="G8" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="H8" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
@@ -744,22 +744,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>117200</v>
+        <v>120000</v>
       </c>
       <c r="E9" s="3">
-        <v>151700</v>
+        <v>155300</v>
       </c>
       <c r="F9" s="3">
-        <v>68200</v>
+        <v>69800</v>
       </c>
       <c r="G9" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="H9" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="I9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -774,19 +774,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-22300</v>
+        <v>-22900</v>
       </c>
       <c r="E10" s="3">
-        <v>-92200</v>
+        <v>-94300</v>
       </c>
       <c r="F10" s="3">
-        <v>-37900</v>
+        <v>-38800</v>
       </c>
       <c r="G10" s="3">
         <v>-1200</v>
       </c>
       <c r="H10" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
@@ -818,16 +818,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29700</v>
+        <v>30400</v>
       </c>
       <c r="E12" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="F12" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="G12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>463400</v>
+        <v>474400</v>
       </c>
       <c r="E14" s="3">
-        <v>63300</v>
+        <v>64800</v>
       </c>
       <c r="F14" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="G14" s="3">
-        <v>-14700</v>
+        <v>-15100</v>
       </c>
       <c r="H14" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="I14" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="J14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -908,16 +908,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E15" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F15" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G15" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>809200</v>
+        <v>828300</v>
       </c>
       <c r="E17" s="3">
-        <v>339100</v>
+        <v>347100</v>
       </c>
       <c r="F17" s="3">
-        <v>225600</v>
+        <v>231000</v>
       </c>
       <c r="G17" s="3">
-        <v>42600</v>
+        <v>43600</v>
       </c>
       <c r="H17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J17" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K17" s="3">
         <v>5300</v>
@@ -979,22 +979,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-714400</v>
+        <v>-731200</v>
       </c>
       <c r="E18" s="3">
-        <v>-279600</v>
+        <v>-286200</v>
       </c>
       <c r="F18" s="3">
-        <v>-195400</v>
+        <v>-200000</v>
       </c>
       <c r="G18" s="3">
-        <v>-27200</v>
+        <v>-27800</v>
       </c>
       <c r="H18" s="3">
         <v>3600</v>
       </c>
       <c r="I18" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>208300</v>
+        <v>213300</v>
       </c>
       <c r="E20" s="3">
-        <v>186400</v>
+        <v>190800</v>
       </c>
       <c r="F20" s="3">
-        <v>1682700</v>
+        <v>1722500</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
@@ -1053,19 +1053,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-486300</v>
+        <v>-498000</v>
       </c>
       <c r="E21" s="3">
-        <v>-84100</v>
+        <v>-86200</v>
       </c>
       <c r="F21" s="3">
-        <v>1492300</v>
+        <v>1527600</v>
       </c>
       <c r="G21" s="3">
-        <v>-25300</v>
+        <v>-25900</v>
       </c>
       <c r="H21" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I21" s="3">
         <v>-1800</v>
@@ -1113,22 +1113,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-506100</v>
+        <v>-518000</v>
       </c>
       <c r="E23" s="3">
-        <v>-93400</v>
+        <v>-95600</v>
       </c>
       <c r="F23" s="3">
-        <v>1485800</v>
+        <v>1520800</v>
       </c>
       <c r="G23" s="3">
-        <v>-27800</v>
+        <v>-28500</v>
       </c>
       <c r="H23" s="3">
         <v>3600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J23" s="3">
         <v>300</v>
@@ -1143,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-505500</v>
+        <v>-517500</v>
       </c>
       <c r="E26" s="3">
-        <v>-95100</v>
+        <v>-97300</v>
       </c>
       <c r="F26" s="3">
-        <v>1485800</v>
+        <v>1520800</v>
       </c>
       <c r="G26" s="3">
-        <v>-27800</v>
+        <v>-28500</v>
       </c>
       <c r="H26" s="3">
         <v>3200</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1233,22 +1233,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-504100</v>
+        <v>-516000</v>
       </c>
       <c r="E27" s="3">
-        <v>-92400</v>
+        <v>-94600</v>
       </c>
       <c r="F27" s="3">
-        <v>1486900</v>
+        <v>1522100</v>
       </c>
       <c r="G27" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="H27" s="3">
         <v>3200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1293,7 +1293,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E29" s="3">
         <v>-800</v>
@@ -1383,13 +1383,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-208300</v>
+        <v>-213300</v>
       </c>
       <c r="E32" s="3">
-        <v>-186400</v>
+        <v>-190800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1682700</v>
+        <v>-1722500</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-504800</v>
+        <v>-516700</v>
       </c>
       <c r="E33" s="3">
-        <v>-93200</v>
+        <v>-95400</v>
       </c>
       <c r="F33" s="3">
-        <v>1486500</v>
+        <v>1521600</v>
       </c>
       <c r="G33" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="H33" s="3">
         <v>3200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1473,22 +1473,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-504800</v>
+        <v>-516700</v>
       </c>
       <c r="E35" s="3">
-        <v>-93200</v>
+        <v>-95400</v>
       </c>
       <c r="F35" s="3">
-        <v>1486500</v>
+        <v>1521600</v>
       </c>
       <c r="G35" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="H35" s="3">
         <v>3200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1130300</v>
+        <v>1157000</v>
       </c>
       <c r="E41" s="3">
-        <v>1373700</v>
+        <v>1406200</v>
       </c>
       <c r="F41" s="3">
-        <v>1528800</v>
+        <v>1564900</v>
       </c>
       <c r="G41" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="H41" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="I41" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J41" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>1000</v>
@@ -1596,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>150000</v>
+        <v>153500</v>
       </c>
       <c r="E42" s="3">
-        <v>269900</v>
+        <v>276200</v>
       </c>
       <c r="F42" s="3">
-        <v>390400</v>
+        <v>399600</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="E43" s="3">
-        <v>33200</v>
+        <v>34000</v>
       </c>
       <c r="F43" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="G43" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="H43" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -1656,22 +1656,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41800</v>
+        <v>42800</v>
       </c>
       <c r="E44" s="3">
-        <v>56100</v>
+        <v>57400</v>
       </c>
       <c r="F44" s="3">
-        <v>48500</v>
+        <v>49600</v>
       </c>
       <c r="G44" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="H44" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="I44" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -1686,22 +1686,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E45" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="3">
         <v>1000</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1716,22 +1716,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1375900</v>
+        <v>1408400</v>
       </c>
       <c r="E46" s="3">
-        <v>1748600</v>
+        <v>1789900</v>
       </c>
       <c r="F46" s="3">
-        <v>2004800</v>
+        <v>2052200</v>
       </c>
       <c r="G46" s="3">
-        <v>50900</v>
+        <v>52100</v>
       </c>
       <c r="H46" s="3">
-        <v>34000</v>
+        <v>34800</v>
       </c>
       <c r="I46" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="J46" s="3">
         <v>1600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>275100</v>
+        <v>281500</v>
       </c>
       <c r="E47" s="3">
-        <v>136200</v>
+        <v>138800</v>
       </c>
       <c r="F47" s="3">
-        <v>82800</v>
+        <v>59400</v>
       </c>
       <c r="G47" s="3">
-        <v>10100</v>
+        <v>4200</v>
       </c>
       <c r="H47" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I47" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="J47" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="K47" s="3">
         <v>7000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105700</v>
+        <v>108200</v>
       </c>
       <c r="E48" s="3">
-        <v>251500</v>
+        <v>257500</v>
       </c>
       <c r="F48" s="3">
-        <v>212200</v>
+        <v>217200</v>
       </c>
       <c r="G48" s="3">
-        <v>164200</v>
+        <v>168100</v>
       </c>
       <c r="H48" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="I48" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="J48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K48" s="3">
         <v>1700</v>
@@ -1806,22 +1806,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24400</v>
+        <v>25000</v>
       </c>
       <c r="E49" s="3">
-        <v>317600</v>
+        <v>325100</v>
       </c>
       <c r="F49" s="3">
-        <v>364100</v>
+        <v>372700</v>
       </c>
       <c r="G49" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="H49" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="I49" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="J49" s="3">
         <v>2600</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>6100</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1781100</v>
+        <v>1823200</v>
       </c>
       <c r="E54" s="3">
-        <v>2453900</v>
+        <v>2511900</v>
       </c>
       <c r="F54" s="3">
-        <v>2663900</v>
+        <v>2726800</v>
       </c>
       <c r="G54" s="3">
-        <v>233800</v>
+        <v>239300</v>
       </c>
       <c r="H54" s="3">
-        <v>128700</v>
+        <v>131800</v>
       </c>
       <c r="I54" s="3">
-        <v>54700</v>
+        <v>56000</v>
       </c>
       <c r="J54" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="K54" s="3">
         <v>13200</v>
@@ -2014,19 +2014,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="E57" s="3">
-        <v>53700</v>
+        <v>54900</v>
       </c>
       <c r="F57" s="3">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="G57" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="H57" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
@@ -2053,13 +2053,13 @@
         <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J58" s="3">
         <v>1400</v>
@@ -2074,22 +2074,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55000</v>
+        <v>56300</v>
       </c>
       <c r="E59" s="3">
-        <v>209900</v>
+        <v>214900</v>
       </c>
       <c r="F59" s="3">
-        <v>379200</v>
+        <v>388200</v>
       </c>
       <c r="G59" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2104,22 +2104,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="E60" s="3">
-        <v>263600</v>
+        <v>269800</v>
       </c>
       <c r="F60" s="3">
-        <v>424200</v>
+        <v>434200</v>
       </c>
       <c r="G60" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="H60" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I60" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="J60" s="3">
         <v>3000</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E62" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="F62" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G62" s="3">
         <v>2500</v>
@@ -2182,7 +2182,7 @@
         <v>1900</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
@@ -2284,22 +2284,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>77100</v>
+        <v>78900</v>
       </c>
       <c r="E66" s="3">
-        <v>273100</v>
+        <v>279600</v>
       </c>
       <c r="F66" s="3">
-        <v>434000</v>
+        <v>444200</v>
       </c>
       <c r="G66" s="3">
-        <v>44600</v>
+        <v>45700</v>
       </c>
       <c r="H66" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="I66" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J66" s="3">
         <v>3900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>840300</v>
+        <v>860100</v>
       </c>
       <c r="E72" s="3">
-        <v>1356500</v>
+        <v>1388500</v>
       </c>
       <c r="F72" s="3">
-        <v>1449700</v>
+        <v>1483900</v>
       </c>
       <c r="G72" s="3">
-        <v>-33600</v>
+        <v>-34400</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
       <c r="I72" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J72" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K72" s="3">
         <v>-6400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1704000</v>
+        <v>1744300</v>
       </c>
       <c r="E76" s="3">
-        <v>2180800</v>
+        <v>2232300</v>
       </c>
       <c r="F76" s="3">
-        <v>2229900</v>
+        <v>2282500</v>
       </c>
       <c r="G76" s="3">
-        <v>189200</v>
+        <v>193600</v>
       </c>
       <c r="H76" s="3">
-        <v>110100</v>
+        <v>112700</v>
       </c>
       <c r="I76" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="J76" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="K76" s="3">
         <v>11800</v>
@@ -2663,22 +2663,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-504800</v>
+        <v>-516700</v>
       </c>
       <c r="E81" s="3">
-        <v>-93200</v>
+        <v>-95400</v>
       </c>
       <c r="F81" s="3">
-        <v>1486500</v>
+        <v>1521600</v>
       </c>
       <c r="G81" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="H81" s="3">
         <v>3200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -2707,13 +2707,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="E83" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
         <v>2500</v>
@@ -2887,22 +2887,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-195800</v>
+        <v>-200400</v>
       </c>
       <c r="E89" s="3">
-        <v>-181500</v>
+        <v>-185800</v>
       </c>
       <c r="F89" s="3">
-        <v>-166000</v>
+        <v>-169900</v>
       </c>
       <c r="G89" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="H89" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="I89" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="J89" s="3">
         <v>-1800</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14200</v>
+        <v>-14500</v>
       </c>
       <c r="E91" s="3">
-        <v>-40000</v>
+        <v>-41000</v>
       </c>
       <c r="F91" s="3">
-        <v>-49300</v>
+        <v>-50400</v>
       </c>
       <c r="G91" s="3">
-        <v>-258300</v>
+        <v>-264400</v>
       </c>
       <c r="H91" s="3">
-        <v>-54400</v>
+        <v>-55700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36800</v>
+        <v>-37700</v>
       </c>
       <c r="E94" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="F94" s="3">
-        <v>-768700</v>
+        <v>-786900</v>
       </c>
       <c r="G94" s="3">
-        <v>-119700</v>
+        <v>-122500</v>
       </c>
       <c r="H94" s="3">
-        <v>-49400</v>
+        <v>-50600</v>
       </c>
       <c r="I94" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J94" s="3">
         <v>-1900</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="E100" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="F100" s="3">
-        <v>2366300</v>
+        <v>2422200</v>
       </c>
       <c r="G100" s="3">
-        <v>155600</v>
+        <v>159300</v>
       </c>
       <c r="H100" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="I100" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="J100" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K100" s="3">
         <v>12500</v>
@@ -3215,16 +3215,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
-        <v>66700</v>
+        <v>68300</v>
       </c>
       <c r="G101" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -3245,19 +3245,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-243500</v>
+        <v>-249200</v>
       </c>
       <c r="E102" s="3">
-        <v>-155000</v>
+        <v>-158700</v>
       </c>
       <c r="F102" s="3">
-        <v>1498300</v>
+        <v>1533700</v>
       </c>
       <c r="G102" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="H102" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -714,16 +714,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>97100</v>
+        <v>96200</v>
       </c>
       <c r="E8" s="3">
-        <v>60900</v>
+        <v>60400</v>
       </c>
       <c r="F8" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="G8" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="H8" s="3">
         <v>5300</v>
@@ -744,19 +744,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>120000</v>
+        <v>118900</v>
       </c>
       <c r="E9" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="F9" s="3">
-        <v>69800</v>
+        <v>69200</v>
       </c>
       <c r="G9" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="H9" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="I9" s="3">
         <v>1000</v>
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="E10" s="3">
-        <v>-94300</v>
+        <v>-93500</v>
       </c>
       <c r="F10" s="3">
-        <v>-38800</v>
+        <v>-38500</v>
       </c>
       <c r="G10" s="3">
         <v>-1200</v>
@@ -818,16 +818,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="E12" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="F12" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="G12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -878,19 +878,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>474400</v>
+        <v>470000</v>
       </c>
       <c r="E14" s="3">
-        <v>64800</v>
+        <v>64200</v>
       </c>
       <c r="F14" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="G14" s="3">
-        <v>-15100</v>
+        <v>-15000</v>
       </c>
       <c r="H14" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="I14" s="3">
         <v>-3800</v>
@@ -911,10 +911,10 @@
         <v>5800</v>
       </c>
       <c r="E15" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F15" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G15" s="3">
         <v>2200</v>
@@ -949,16 +949,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>828300</v>
+        <v>820700</v>
       </c>
       <c r="E17" s="3">
-        <v>347100</v>
+        <v>343900</v>
       </c>
       <c r="F17" s="3">
-        <v>231000</v>
+        <v>228800</v>
       </c>
       <c r="G17" s="3">
-        <v>43600</v>
+        <v>43200</v>
       </c>
       <c r="H17" s="3">
         <v>1700</v>
@@ -979,16 +979,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-731200</v>
+        <v>-724500</v>
       </c>
       <c r="E18" s="3">
-        <v>-286200</v>
+        <v>-283500</v>
       </c>
       <c r="F18" s="3">
-        <v>-200000</v>
+        <v>-198100</v>
       </c>
       <c r="G18" s="3">
-        <v>-27800</v>
+        <v>-27600</v>
       </c>
       <c r="H18" s="3">
         <v>3600</v>
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>213300</v>
+        <v>211300</v>
       </c>
       <c r="E20" s="3">
-        <v>190800</v>
+        <v>189100</v>
       </c>
       <c r="F20" s="3">
-        <v>1722500</v>
+        <v>1706600</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
@@ -1053,16 +1053,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-498000</v>
+        <v>-493300</v>
       </c>
       <c r="E21" s="3">
-        <v>-86200</v>
+        <v>-85300</v>
       </c>
       <c r="F21" s="3">
-        <v>1527600</v>
+        <v>1513500</v>
       </c>
       <c r="G21" s="3">
-        <v>-25900</v>
+        <v>-25700</v>
       </c>
       <c r="H21" s="3">
         <v>4900</v>
@@ -1113,16 +1113,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-518000</v>
+        <v>-513300</v>
       </c>
       <c r="E23" s="3">
-        <v>-95600</v>
+        <v>-94700</v>
       </c>
       <c r="F23" s="3">
-        <v>1520800</v>
+        <v>1506900</v>
       </c>
       <c r="G23" s="3">
-        <v>-28500</v>
+        <v>-28200</v>
       </c>
       <c r="H23" s="3">
         <v>3600</v>
@@ -1146,7 +1146,7 @@
         <v>-600</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-517500</v>
+        <v>-512700</v>
       </c>
       <c r="E26" s="3">
-        <v>-97300</v>
+        <v>-96400</v>
       </c>
       <c r="F26" s="3">
-        <v>1520800</v>
+        <v>1506900</v>
       </c>
       <c r="G26" s="3">
-        <v>-28500</v>
+        <v>-28200</v>
       </c>
       <c r="H26" s="3">
         <v>3200</v>
       </c>
       <c r="I26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1233,22 +1233,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-516000</v>
+        <v>-511300</v>
       </c>
       <c r="E27" s="3">
-        <v>-94600</v>
+        <v>-93700</v>
       </c>
       <c r="F27" s="3">
-        <v>1522100</v>
+        <v>1508100</v>
       </c>
       <c r="G27" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="H27" s="3">
         <v>3200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1293,7 +1293,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E29" s="3">
         <v>-800</v>
@@ -1383,13 +1383,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-213300</v>
+        <v>-211300</v>
       </c>
       <c r="E32" s="3">
-        <v>-190800</v>
+        <v>-189100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1722500</v>
+        <v>-1706600</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-516700</v>
+        <v>-511900</v>
       </c>
       <c r="E33" s="3">
-        <v>-95400</v>
+        <v>-94500</v>
       </c>
       <c r="F33" s="3">
-        <v>1521600</v>
+        <v>1507600</v>
       </c>
       <c r="G33" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="H33" s="3">
         <v>3200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1473,22 +1473,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-516700</v>
+        <v>-511900</v>
       </c>
       <c r="E35" s="3">
-        <v>-95400</v>
+        <v>-94500</v>
       </c>
       <c r="F35" s="3">
-        <v>1521600</v>
+        <v>1507600</v>
       </c>
       <c r="G35" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="H35" s="3">
         <v>3200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1566,19 +1566,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1157000</v>
+        <v>1146300</v>
       </c>
       <c r="E41" s="3">
-        <v>1406200</v>
+        <v>1393200</v>
       </c>
       <c r="F41" s="3">
-        <v>1564900</v>
+        <v>1550500</v>
       </c>
       <c r="G41" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="H41" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="I41" s="3">
         <v>4500</v>
@@ -1596,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>153500</v>
+        <v>152100</v>
       </c>
       <c r="E42" s="3">
-        <v>276200</v>
+        <v>273700</v>
       </c>
       <c r="F42" s="3">
-        <v>399600</v>
+        <v>395900</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="E43" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="F43" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="G43" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="H43" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -1656,19 +1656,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42800</v>
+        <v>42400</v>
       </c>
       <c r="E44" s="3">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="F44" s="3">
-        <v>49600</v>
+        <v>49200</v>
       </c>
       <c r="G44" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="H44" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="I44" s="3">
         <v>4800</v>
@@ -1686,13 +1686,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E45" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="F45" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="G45" s="3">
         <v>3700</v>
@@ -1716,19 +1716,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1408400</v>
+        <v>1395400</v>
       </c>
       <c r="E46" s="3">
-        <v>1789900</v>
+        <v>1773400</v>
       </c>
       <c r="F46" s="3">
-        <v>2052200</v>
+        <v>2033300</v>
       </c>
       <c r="G46" s="3">
-        <v>52100</v>
+        <v>51600</v>
       </c>
       <c r="H46" s="3">
-        <v>34800</v>
+        <v>34500</v>
       </c>
       <c r="I46" s="3">
         <v>10500</v>
@@ -1746,13 +1746,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>281500</v>
+        <v>278900</v>
       </c>
       <c r="E47" s="3">
-        <v>138800</v>
+        <v>137500</v>
       </c>
       <c r="F47" s="3">
-        <v>59400</v>
+        <v>58800</v>
       </c>
       <c r="G47" s="3">
         <v>4200</v>
@@ -1761,10 +1761,10 @@
         <v>6700</v>
       </c>
       <c r="I47" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J47" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="K47" s="3">
         <v>7000</v>
@@ -1776,22 +1776,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108200</v>
+        <v>107200</v>
       </c>
       <c r="E48" s="3">
-        <v>257500</v>
+        <v>255100</v>
       </c>
       <c r="F48" s="3">
-        <v>217200</v>
+        <v>215200</v>
       </c>
       <c r="G48" s="3">
-        <v>168100</v>
+        <v>166500</v>
       </c>
       <c r="H48" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="I48" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="J48" s="3">
         <v>3500</v>
@@ -1806,22 +1806,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="E49" s="3">
-        <v>325100</v>
+        <v>322100</v>
       </c>
       <c r="F49" s="3">
-        <v>372700</v>
+        <v>369300</v>
       </c>
       <c r="G49" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="H49" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I49" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="J49" s="3">
         <v>2600</v>
@@ -1902,7 +1902,7 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="G52" s="3">
         <v>6100</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1823200</v>
+        <v>1806400</v>
       </c>
       <c r="E54" s="3">
-        <v>2511900</v>
+        <v>2488800</v>
       </c>
       <c r="F54" s="3">
-        <v>2726800</v>
+        <v>2701700</v>
       </c>
       <c r="G54" s="3">
-        <v>239300</v>
+        <v>237100</v>
       </c>
       <c r="H54" s="3">
-        <v>131800</v>
+        <v>130600</v>
       </c>
       <c r="I54" s="3">
-        <v>56000</v>
+        <v>55400</v>
       </c>
       <c r="J54" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="K54" s="3">
         <v>13200</v>
@@ -2014,19 +2014,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="E57" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="F57" s="3">
-        <v>46000</v>
+        <v>45600</v>
       </c>
       <c r="G57" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="H57" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
@@ -2053,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2074,22 +2074,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="E59" s="3">
-        <v>214900</v>
+        <v>212900</v>
       </c>
       <c r="F59" s="3">
-        <v>388200</v>
+        <v>384600</v>
       </c>
       <c r="G59" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2104,22 +2104,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>70900</v>
+        <v>70300</v>
       </c>
       <c r="E60" s="3">
-        <v>269800</v>
+        <v>267300</v>
       </c>
       <c r="F60" s="3">
-        <v>434200</v>
+        <v>430200</v>
       </c>
       <c r="G60" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="H60" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I60" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="J60" s="3">
         <v>3000</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E62" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G62" s="3">
         <v>2500</v>
@@ -2284,22 +2284,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78900</v>
+        <v>78200</v>
       </c>
       <c r="E66" s="3">
-        <v>279600</v>
+        <v>277000</v>
       </c>
       <c r="F66" s="3">
-        <v>444200</v>
+        <v>440100</v>
       </c>
       <c r="G66" s="3">
-        <v>45700</v>
+        <v>45300</v>
       </c>
       <c r="H66" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="I66" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="J66" s="3">
         <v>3900</v>
@@ -2448,16 +2448,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>860100</v>
+        <v>852200</v>
       </c>
       <c r="E72" s="3">
-        <v>1388500</v>
+        <v>1375800</v>
       </c>
       <c r="F72" s="3">
-        <v>1483900</v>
+        <v>1470300</v>
       </c>
       <c r="G72" s="3">
-        <v>-34400</v>
+        <v>-34100</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1744300</v>
+        <v>1728300</v>
       </c>
       <c r="E76" s="3">
-        <v>2232300</v>
+        <v>2211800</v>
       </c>
       <c r="F76" s="3">
-        <v>2282500</v>
+        <v>2261500</v>
       </c>
       <c r="G76" s="3">
-        <v>193600</v>
+        <v>191900</v>
       </c>
       <c r="H76" s="3">
-        <v>112700</v>
+        <v>111600</v>
       </c>
       <c r="I76" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="J76" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="K76" s="3">
         <v>11800</v>
@@ -2663,22 +2663,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-516700</v>
+        <v>-511900</v>
       </c>
       <c r="E81" s="3">
-        <v>-95400</v>
+        <v>-94500</v>
       </c>
       <c r="F81" s="3">
-        <v>1521600</v>
+        <v>1507600</v>
       </c>
       <c r="G81" s="3">
-        <v>-28200</v>
+        <v>-28000</v>
       </c>
       <c r="H81" s="3">
         <v>3200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -2707,10 +2707,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="E83" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="F83" s="3">
         <v>5100</v>
@@ -2887,16 +2887,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200400</v>
+        <v>-198500</v>
       </c>
       <c r="E89" s="3">
-        <v>-185800</v>
+        <v>-184100</v>
       </c>
       <c r="F89" s="3">
-        <v>-169900</v>
+        <v>-168400</v>
       </c>
       <c r="G89" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H89" s="3">
         <v>-7200</v>
@@ -2931,19 +2931,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14500</v>
+        <v>-14400</v>
       </c>
       <c r="E91" s="3">
-        <v>-41000</v>
+        <v>-40600</v>
       </c>
       <c r="F91" s="3">
-        <v>-50400</v>
+        <v>-50000</v>
       </c>
       <c r="G91" s="3">
-        <v>-264400</v>
+        <v>-262000</v>
       </c>
       <c r="H91" s="3">
-        <v>-55700</v>
+        <v>-55200</v>
       </c>
       <c r="I91" s="3">
         <v>-2000</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37700</v>
+        <v>-37300</v>
       </c>
       <c r="E94" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="F94" s="3">
-        <v>-786900</v>
+        <v>-779700</v>
       </c>
       <c r="G94" s="3">
-        <v>-122500</v>
+        <v>-121400</v>
       </c>
       <c r="H94" s="3">
-        <v>-50600</v>
+        <v>-50100</v>
       </c>
       <c r="I94" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="J94" s="3">
         <v>-1900</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17500</v>
+        <v>-17400</v>
       </c>
       <c r="E100" s="3">
         <v>-7100</v>
       </c>
       <c r="F100" s="3">
-        <v>2422200</v>
+        <v>2399900</v>
       </c>
       <c r="G100" s="3">
-        <v>159300</v>
+        <v>157800</v>
       </c>
       <c r="H100" s="3">
-        <v>65300</v>
+        <v>64700</v>
       </c>
       <c r="I100" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="J100" s="3">
         <v>4100</v>
@@ -3215,13 +3215,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="F101" s="3">
-        <v>68300</v>
+        <v>67700</v>
       </c>
       <c r="G101" s="3">
         <v>-5300</v>
@@ -3245,19 +3245,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-249200</v>
+        <v>-246900</v>
       </c>
       <c r="E102" s="3">
-        <v>-158700</v>
+        <v>-157200</v>
       </c>
       <c r="F102" s="3">
-        <v>1533700</v>
+        <v>1519600</v>
       </c>
       <c r="G102" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="H102" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I102" s="3">
         <v>3000</v>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -714,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>96200</v>
+        <v>99100</v>
       </c>
       <c r="E8" s="3">
-        <v>60400</v>
+        <v>62200</v>
       </c>
       <c r="F8" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="G8" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="H8" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
@@ -744,19 +744,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>118900</v>
+        <v>122500</v>
       </c>
       <c r="E9" s="3">
-        <v>153900</v>
+        <v>158500</v>
       </c>
       <c r="F9" s="3">
-        <v>69200</v>
+        <v>71300</v>
       </c>
       <c r="G9" s="3">
-        <v>16900</v>
+        <v>17400</v>
       </c>
       <c r="H9" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="I9" s="3">
         <v>1000</v>
@@ -774,19 +774,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="E10" s="3">
-        <v>-93500</v>
+        <v>-96300</v>
       </c>
       <c r="F10" s="3">
-        <v>-38500</v>
+        <v>-39600</v>
       </c>
       <c r="G10" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H10" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
@@ -818,16 +818,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30200</v>
+        <v>31100</v>
       </c>
       <c r="E12" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="F12" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="G12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -878,22 +878,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>470000</v>
+        <v>484300</v>
       </c>
       <c r="E14" s="3">
-        <v>64200</v>
+        <v>66200</v>
       </c>
       <c r="F14" s="3">
-        <v>-13200</v>
+        <v>-13600</v>
       </c>
       <c r="G14" s="3">
-        <v>-15000</v>
+        <v>-15400</v>
       </c>
       <c r="H14" s="3">
-        <v>-15000</v>
+        <v>-15500</v>
       </c>
       <c r="I14" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="J14" s="3">
         <v>1900</v>
@@ -908,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F15" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G15" s="3">
         <v>2200</v>
@@ -926,7 +926,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>820700</v>
+        <v>845700</v>
       </c>
       <c r="E17" s="3">
-        <v>343900</v>
+        <v>354400</v>
       </c>
       <c r="F17" s="3">
-        <v>228800</v>
+        <v>235800</v>
       </c>
       <c r="G17" s="3">
-        <v>43200</v>
+        <v>44600</v>
       </c>
       <c r="H17" s="3">
         <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J17" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K17" s="3">
         <v>5300</v>
@@ -979,19 +979,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-724500</v>
+        <v>-746600</v>
       </c>
       <c r="E18" s="3">
-        <v>-283500</v>
+        <v>-292200</v>
       </c>
       <c r="F18" s="3">
-        <v>-198100</v>
+        <v>-204200</v>
       </c>
       <c r="G18" s="3">
-        <v>-27600</v>
+        <v>-28400</v>
       </c>
       <c r="H18" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I18" s="3">
         <v>-2300</v>
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>211300</v>
+        <v>217700</v>
       </c>
       <c r="E20" s="3">
-        <v>189100</v>
+        <v>194800</v>
       </c>
       <c r="F20" s="3">
-        <v>1706600</v>
+        <v>1758600</v>
       </c>
       <c r="G20" s="3">
         <v>-600</v>
@@ -1053,19 +1053,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-493300</v>
+        <v>-508000</v>
       </c>
       <c r="E21" s="3">
-        <v>-85300</v>
+        <v>-87800</v>
       </c>
       <c r="F21" s="3">
-        <v>1513500</v>
+        <v>1559700</v>
       </c>
       <c r="G21" s="3">
-        <v>-25700</v>
+        <v>-26400</v>
       </c>
       <c r="H21" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I21" s="3">
         <v>-1800</v>
@@ -1089,7 +1089,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1113,19 +1113,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-513300</v>
+        <v>-528900</v>
       </c>
       <c r="E23" s="3">
-        <v>-94700</v>
+        <v>-97600</v>
       </c>
       <c r="F23" s="3">
-        <v>1506900</v>
+        <v>1552800</v>
       </c>
       <c r="G23" s="3">
-        <v>-28200</v>
+        <v>-29100</v>
       </c>
       <c r="H23" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I23" s="3">
         <v>-2300</v>
@@ -1146,7 +1146,7 @@
         <v>-600</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1203,22 +1203,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-512700</v>
+        <v>-528300</v>
       </c>
       <c r="E26" s="3">
-        <v>-96400</v>
+        <v>-99400</v>
       </c>
       <c r="F26" s="3">
-        <v>1506900</v>
+        <v>1552800</v>
       </c>
       <c r="G26" s="3">
-        <v>-28200</v>
+        <v>-29100</v>
       </c>
       <c r="H26" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J26" s="3">
         <v>300</v>
@@ -1233,22 +1233,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-511300</v>
+        <v>-526900</v>
       </c>
       <c r="E27" s="3">
-        <v>-93700</v>
+        <v>-96500</v>
       </c>
       <c r="F27" s="3">
-        <v>1508100</v>
+        <v>1554000</v>
       </c>
       <c r="G27" s="3">
-        <v>-28000</v>
+        <v>-28800</v>
       </c>
       <c r="H27" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1293,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E29" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F29" s="3">
         <v>-500</v>
@@ -1383,13 +1383,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-211300</v>
+        <v>-217700</v>
       </c>
       <c r="E32" s="3">
-        <v>-189100</v>
+        <v>-194800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1706600</v>
+        <v>-1758600</v>
       </c>
       <c r="G32" s="3">
         <v>600</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-511900</v>
+        <v>-527500</v>
       </c>
       <c r="E33" s="3">
-        <v>-94500</v>
+        <v>-97400</v>
       </c>
       <c r="F33" s="3">
-        <v>1507600</v>
+        <v>1553600</v>
       </c>
       <c r="G33" s="3">
-        <v>-28000</v>
+        <v>-28800</v>
       </c>
       <c r="H33" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1473,22 +1473,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-511900</v>
+        <v>-527500</v>
       </c>
       <c r="E35" s="3">
-        <v>-94500</v>
+        <v>-97400</v>
       </c>
       <c r="F35" s="3">
-        <v>1507600</v>
+        <v>1553600</v>
       </c>
       <c r="G35" s="3">
-        <v>-28000</v>
+        <v>-28800</v>
       </c>
       <c r="H35" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1566,22 +1566,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1146300</v>
+        <v>1181300</v>
       </c>
       <c r="E41" s="3">
-        <v>1393200</v>
+        <v>1435700</v>
       </c>
       <c r="F41" s="3">
-        <v>1550500</v>
+        <v>1597800</v>
       </c>
       <c r="G41" s="3">
-        <v>30900</v>
+        <v>31900</v>
       </c>
       <c r="H41" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="I41" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J41" s="3">
         <v>1500</v>
@@ -1596,13 +1596,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>152100</v>
+        <v>156700</v>
       </c>
       <c r="E42" s="3">
-        <v>273700</v>
+        <v>282000</v>
       </c>
       <c r="F42" s="3">
-        <v>395900</v>
+        <v>408000</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43000</v>
+        <v>44300</v>
       </c>
       <c r="E43" s="3">
-        <v>33700</v>
+        <v>34700</v>
       </c>
       <c r="F43" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="G43" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="H43" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="E44" s="3">
-        <v>56900</v>
+        <v>58600</v>
       </c>
       <c r="F44" s="3">
-        <v>49200</v>
+        <v>50700</v>
       </c>
       <c r="G44" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="H44" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="I44" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="E45" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="F45" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H45" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1716,22 +1716,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1395400</v>
+        <v>1438000</v>
       </c>
       <c r="E46" s="3">
-        <v>1773400</v>
+        <v>1827500</v>
       </c>
       <c r="F46" s="3">
-        <v>2033300</v>
+        <v>2095300</v>
       </c>
       <c r="G46" s="3">
-        <v>51600</v>
+        <v>53200</v>
       </c>
       <c r="H46" s="3">
-        <v>34500</v>
+        <v>35600</v>
       </c>
       <c r="I46" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="J46" s="3">
         <v>1600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>278900</v>
+        <v>287400</v>
       </c>
       <c r="E47" s="3">
-        <v>137500</v>
+        <v>141700</v>
       </c>
       <c r="F47" s="3">
-        <v>58800</v>
+        <v>60600</v>
       </c>
       <c r="G47" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H47" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="I47" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="J47" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="K47" s="3">
         <v>7000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107200</v>
+        <v>110500</v>
       </c>
       <c r="E48" s="3">
-        <v>255100</v>
+        <v>262900</v>
       </c>
       <c r="F48" s="3">
-        <v>215200</v>
+        <v>221700</v>
       </c>
       <c r="G48" s="3">
-        <v>166500</v>
+        <v>171600</v>
       </c>
       <c r="H48" s="3">
-        <v>72600</v>
+        <v>74800</v>
       </c>
       <c r="I48" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="J48" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K48" s="3">
         <v>1700</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24800</v>
+        <v>25500</v>
       </c>
       <c r="E49" s="3">
-        <v>322100</v>
+        <v>331900</v>
       </c>
       <c r="F49" s="3">
-        <v>369300</v>
+        <v>380500</v>
       </c>
       <c r="G49" s="3">
-        <v>26900</v>
+        <v>27700</v>
       </c>
       <c r="H49" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="I49" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="J49" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K49" s="3">
         <v>2600</v>
@@ -1902,10 +1902,10 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>25100</v>
+        <v>25900</v>
       </c>
       <c r="G52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1806400</v>
+        <v>1861500</v>
       </c>
       <c r="E54" s="3">
-        <v>2488800</v>
+        <v>2564600</v>
       </c>
       <c r="F54" s="3">
-        <v>2701700</v>
+        <v>2784100</v>
       </c>
       <c r="G54" s="3">
-        <v>237100</v>
+        <v>244300</v>
       </c>
       <c r="H54" s="3">
-        <v>130600</v>
+        <v>134600</v>
       </c>
       <c r="I54" s="3">
-        <v>55400</v>
+        <v>57100</v>
       </c>
       <c r="J54" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="K54" s="3">
         <v>13200</v>
@@ -2014,22 +2014,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="E57" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="F57" s="3">
-        <v>45600</v>
+        <v>47000</v>
       </c>
       <c r="G57" s="3">
-        <v>43000</v>
+        <v>44300</v>
       </c>
       <c r="H57" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="I57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
@@ -2053,13 +2053,13 @@
         <v>4</v>
       </c>
       <c r="G58" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J58" s="3">
         <v>1400</v>
@@ -2074,22 +2074,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55800</v>
+        <v>57500</v>
       </c>
       <c r="E59" s="3">
-        <v>212900</v>
+        <v>219400</v>
       </c>
       <c r="F59" s="3">
-        <v>384600</v>
+        <v>396300</v>
       </c>
       <c r="G59" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>70300</v>
+        <v>72400</v>
       </c>
       <c r="E60" s="3">
-        <v>267300</v>
+        <v>275500</v>
       </c>
       <c r="F60" s="3">
-        <v>430200</v>
+        <v>443300</v>
       </c>
       <c r="G60" s="3">
-        <v>43000</v>
+        <v>44300</v>
       </c>
       <c r="H60" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="I60" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="J60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,19 +2164,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="E62" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="F62" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I62" s="3">
         <v>1900</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78200</v>
+        <v>80600</v>
       </c>
       <c r="E66" s="3">
-        <v>277000</v>
+        <v>285400</v>
       </c>
       <c r="F66" s="3">
-        <v>440100</v>
+        <v>453600</v>
       </c>
       <c r="G66" s="3">
-        <v>45300</v>
+        <v>46600</v>
       </c>
       <c r="H66" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="I66" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="J66" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K66" s="3">
         <v>1400</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>852200</v>
+        <v>878200</v>
       </c>
       <c r="E72" s="3">
-        <v>1375800</v>
+        <v>1417700</v>
       </c>
       <c r="F72" s="3">
-        <v>1470300</v>
+        <v>1515100</v>
       </c>
       <c r="G72" s="3">
-        <v>-34100</v>
+        <v>-35200</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
       <c r="I72" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J72" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="K72" s="3">
         <v>-6400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1728300</v>
+        <v>1780900</v>
       </c>
       <c r="E76" s="3">
-        <v>2211800</v>
+        <v>2279200</v>
       </c>
       <c r="F76" s="3">
-        <v>2261500</v>
+        <v>2330500</v>
       </c>
       <c r="G76" s="3">
-        <v>191900</v>
+        <v>197700</v>
       </c>
       <c r="H76" s="3">
-        <v>111600</v>
+        <v>115000</v>
       </c>
       <c r="I76" s="3">
-        <v>43500</v>
+        <v>44900</v>
       </c>
       <c r="J76" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="K76" s="3">
         <v>11800</v>
@@ -2663,22 +2663,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-511900</v>
+        <v>-527500</v>
       </c>
       <c r="E81" s="3">
-        <v>-94500</v>
+        <v>-97400</v>
       </c>
       <c r="F81" s="3">
-        <v>1507600</v>
+        <v>1553600</v>
       </c>
       <c r="G81" s="3">
-        <v>-28000</v>
+        <v>-28800</v>
       </c>
       <c r="H81" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>
@@ -2707,16 +2707,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19900</v>
+        <v>20500</v>
       </c>
       <c r="E83" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -2725,7 +2725,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2887,22 +2887,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-198500</v>
+        <v>-204600</v>
       </c>
       <c r="E89" s="3">
-        <v>-184100</v>
+        <v>-189700</v>
       </c>
       <c r="F89" s="3">
-        <v>-168400</v>
+        <v>-173500</v>
       </c>
       <c r="G89" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="H89" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I89" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="J89" s="3">
         <v>-1800</v>
@@ -2931,19 +2931,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14400</v>
+        <v>-14800</v>
       </c>
       <c r="E91" s="3">
-        <v>-40600</v>
+        <v>-41800</v>
       </c>
       <c r="F91" s="3">
-        <v>-50000</v>
+        <v>-51500</v>
       </c>
       <c r="G91" s="3">
-        <v>-262000</v>
+        <v>-270000</v>
       </c>
       <c r="H91" s="3">
-        <v>-55200</v>
+        <v>-56900</v>
       </c>
       <c r="I91" s="3">
         <v>-2000</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37300</v>
+        <v>-38500</v>
       </c>
       <c r="E94" s="3">
-        <v>26000</v>
+        <v>26800</v>
       </c>
       <c r="F94" s="3">
-        <v>-779700</v>
+        <v>-803400</v>
       </c>
       <c r="G94" s="3">
-        <v>-121400</v>
+        <v>-125100</v>
       </c>
       <c r="H94" s="3">
-        <v>-50100</v>
+        <v>-51600</v>
       </c>
       <c r="I94" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="J94" s="3">
         <v>-1900</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17400</v>
+        <v>-17900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="F100" s="3">
-        <v>2399900</v>
+        <v>2473100</v>
       </c>
       <c r="G100" s="3">
-        <v>157800</v>
+        <v>162600</v>
       </c>
       <c r="H100" s="3">
-        <v>64700</v>
+        <v>66700</v>
       </c>
       <c r="I100" s="3">
-        <v>21700</v>
+        <v>22400</v>
       </c>
       <c r="J100" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K100" s="3">
         <v>12500</v>
@@ -3215,16 +3215,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E101" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F101" s="3">
-        <v>67700</v>
+        <v>69700</v>
       </c>
       <c r="G101" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -3245,22 +3245,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-246900</v>
+        <v>-254400</v>
       </c>
       <c r="E102" s="3">
-        <v>-157200</v>
+        <v>-162000</v>
       </c>
       <c r="F102" s="3">
-        <v>1519600</v>
+        <v>1565900</v>
       </c>
       <c r="G102" s="3">
-        <v>21500</v>
+        <v>22100</v>
       </c>
       <c r="H102" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="I102" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>CRON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>99100</v>
+        <v>127100</v>
       </c>
       <c r="E8" s="3">
-        <v>62200</v>
+        <v>102900</v>
       </c>
       <c r="F8" s="3">
-        <v>31600</v>
+        <v>64600</v>
       </c>
       <c r="G8" s="3">
-        <v>16100</v>
+        <v>32800</v>
       </c>
       <c r="H8" s="3">
-        <v>5400</v>
+        <v>16800</v>
       </c>
       <c r="I8" s="3">
-        <v>700</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+        <v>5600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>122500</v>
+        <v>110500</v>
       </c>
       <c r="E9" s="3">
-        <v>158500</v>
+        <v>127200</v>
       </c>
       <c r="F9" s="3">
-        <v>71300</v>
+        <v>164600</v>
       </c>
       <c r="G9" s="3">
-        <v>17400</v>
+        <v>74000</v>
       </c>
       <c r="H9" s="3">
-        <v>11300</v>
+        <v>18100</v>
       </c>
       <c r="I9" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-23400</v>
+        <v>16500</v>
       </c>
       <c r="E10" s="3">
-        <v>-96300</v>
+        <v>-24200</v>
       </c>
       <c r="F10" s="3">
-        <v>-39600</v>
+        <v>-100000</v>
       </c>
       <c r="G10" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="H10" s="3">
         <v>-1300</v>
       </c>
-      <c r="H10" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I10" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>-6100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,25 +824,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31100</v>
+        <v>18500</v>
       </c>
       <c r="E12" s="3">
-        <v>27100</v>
+        <v>32300</v>
       </c>
       <c r="F12" s="3">
-        <v>16200</v>
+        <v>28200</v>
       </c>
       <c r="G12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+        <v>16800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>484300</v>
+        <v>97100</v>
       </c>
       <c r="E14" s="3">
-        <v>66200</v>
+        <v>502900</v>
       </c>
       <c r="F14" s="3">
-        <v>-13600</v>
+        <v>68700</v>
       </c>
       <c r="G14" s="3">
-        <v>-15400</v>
+        <v>-14100</v>
       </c>
       <c r="H14" s="3">
-        <v>-15500</v>
+        <v>-16000</v>
       </c>
       <c r="I14" s="3">
-        <v>-3900</v>
+        <v>-16100</v>
       </c>
       <c r="J14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>8300</v>
       </c>
       <c r="E15" s="3">
-        <v>7600</v>
+        <v>6200</v>
       </c>
       <c r="F15" s="3">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="G15" s="3">
-        <v>2200</v>
+        <v>5800</v>
       </c>
       <c r="H15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>845700</v>
+        <v>384600</v>
       </c>
       <c r="E17" s="3">
-        <v>354400</v>
+        <v>878100</v>
       </c>
       <c r="F17" s="3">
-        <v>235800</v>
+        <v>367900</v>
       </c>
       <c r="G17" s="3">
-        <v>44600</v>
+        <v>244800</v>
       </c>
       <c r="H17" s="3">
-        <v>1700</v>
+        <v>46300</v>
       </c>
       <c r="I17" s="3">
-        <v>3100</v>
+        <v>1800</v>
       </c>
       <c r="J17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-746600</v>
+        <v>-257500</v>
       </c>
       <c r="E18" s="3">
-        <v>-292200</v>
+        <v>-775100</v>
       </c>
       <c r="F18" s="3">
-        <v>-204200</v>
+        <v>-303300</v>
       </c>
       <c r="G18" s="3">
-        <v>-28400</v>
+        <v>-212000</v>
       </c>
       <c r="H18" s="3">
-        <v>3700</v>
+        <v>-29500</v>
       </c>
       <c r="I18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+        <v>3900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>217700</v>
+        <v>71500</v>
       </c>
       <c r="E20" s="3">
-        <v>194800</v>
+        <v>226100</v>
       </c>
       <c r="F20" s="3">
-        <v>1758600</v>
+        <v>202300</v>
       </c>
       <c r="G20" s="3">
-        <v>-600</v>
+        <v>1825900</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-508000</v>
+        <v>-167900</v>
       </c>
       <c r="E21" s="3">
-        <v>-87800</v>
+        <v>-527800</v>
       </c>
       <c r="F21" s="3">
-        <v>1559700</v>
+        <v>-91300</v>
       </c>
       <c r="G21" s="3">
-        <v>-26400</v>
+        <v>1619300</v>
       </c>
       <c r="H21" s="3">
-        <v>5100</v>
+        <v>-27500</v>
       </c>
       <c r="I21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+        <v>5200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1086,14 +1125,14 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-528900</v>
+        <v>-186100</v>
       </c>
       <c r="E23" s="3">
-        <v>-97600</v>
+        <v>-549100</v>
       </c>
       <c r="F23" s="3">
-        <v>1552800</v>
+        <v>-101300</v>
       </c>
       <c r="G23" s="3">
-        <v>-29100</v>
+        <v>1612100</v>
       </c>
       <c r="H23" s="3">
-        <v>3700</v>
+        <v>-30200</v>
       </c>
       <c r="I23" s="3">
-        <v>-2300</v>
+        <v>3900</v>
       </c>
       <c r="J23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
-        <v>1800</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-528300</v>
+        <v>-233300</v>
       </c>
       <c r="E26" s="3">
-        <v>-99400</v>
+        <v>-548500</v>
       </c>
       <c r="F26" s="3">
-        <v>1552800</v>
+        <v>-103200</v>
       </c>
       <c r="G26" s="3">
-        <v>-29100</v>
+        <v>1612100</v>
       </c>
       <c r="H26" s="3">
-        <v>3300</v>
+        <v>-30200</v>
       </c>
       <c r="I26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-526900</v>
+        <v>-233300</v>
       </c>
       <c r="E27" s="3">
-        <v>-96500</v>
+        <v>-547000</v>
       </c>
       <c r="F27" s="3">
-        <v>1554000</v>
+        <v>-100200</v>
       </c>
       <c r="G27" s="3">
-        <v>-28800</v>
+        <v>1613400</v>
       </c>
       <c r="H27" s="3">
-        <v>3300</v>
+        <v>-29900</v>
       </c>
       <c r="I27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,24 +1343,27 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-217700</v>
+        <v>-71500</v>
       </c>
       <c r="E32" s="3">
-        <v>-194800</v>
+        <v>-226100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1758600</v>
+        <v>-202300</v>
       </c>
       <c r="G32" s="3">
-        <v>600</v>
+        <v>-1825900</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-527500</v>
+        <v>-233300</v>
       </c>
       <c r="E33" s="3">
-        <v>-97400</v>
+        <v>-547700</v>
       </c>
       <c r="F33" s="3">
-        <v>1553600</v>
+        <v>-101100</v>
       </c>
       <c r="G33" s="3">
-        <v>-28800</v>
+        <v>1612900</v>
       </c>
       <c r="H33" s="3">
-        <v>3300</v>
+        <v>-29900</v>
       </c>
       <c r="I33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-527500</v>
+        <v>-233300</v>
       </c>
       <c r="E35" s="3">
-        <v>-97400</v>
+        <v>-547700</v>
       </c>
       <c r="F35" s="3">
-        <v>1553600</v>
+        <v>-101100</v>
       </c>
       <c r="G35" s="3">
-        <v>-28800</v>
+        <v>1612900</v>
       </c>
       <c r="H35" s="3">
-        <v>3300</v>
+        <v>-29900</v>
       </c>
       <c r="I35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,55 +1645,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1181300</v>
+        <v>1057300</v>
       </c>
       <c r="E41" s="3">
-        <v>1435700</v>
+        <v>1226400</v>
       </c>
       <c r="F41" s="3">
-        <v>1597800</v>
+        <v>1490600</v>
       </c>
       <c r="G41" s="3">
-        <v>31900</v>
+        <v>1658800</v>
       </c>
       <c r="H41" s="3">
-        <v>12300</v>
+        <v>33100</v>
       </c>
       <c r="I41" s="3">
-        <v>4600</v>
+        <v>12700</v>
       </c>
       <c r="J41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156700</v>
+        <v>156400</v>
       </c>
       <c r="E42" s="3">
-        <v>282000</v>
+        <v>162700</v>
       </c>
       <c r="F42" s="3">
-        <v>408000</v>
+        <v>292800</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+        <v>423600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44300</v>
+        <v>52200</v>
       </c>
       <c r="E43" s="3">
-        <v>34700</v>
+        <v>46000</v>
       </c>
       <c r="F43" s="3">
-        <v>28200</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="3">
-        <v>12700</v>
+        <v>29300</v>
       </c>
       <c r="H43" s="3">
-        <v>6100</v>
+        <v>13200</v>
       </c>
       <c r="I43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43700</v>
+        <v>51900</v>
       </c>
       <c r="E44" s="3">
-        <v>58600</v>
+        <v>45400</v>
       </c>
       <c r="F44" s="3">
-        <v>50700</v>
+        <v>60800</v>
       </c>
       <c r="G44" s="3">
-        <v>21900</v>
+        <v>52600</v>
       </c>
       <c r="H44" s="3">
-        <v>16200</v>
+        <v>22800</v>
       </c>
       <c r="I44" s="3">
-        <v>4900</v>
+        <v>16800</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
-        <v>16400</v>
+        <v>12400</v>
       </c>
       <c r="F45" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>17500</v>
       </c>
       <c r="H45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1438000</v>
+        <v>1327600</v>
       </c>
       <c r="E46" s="3">
-        <v>1827500</v>
+        <v>1492900</v>
       </c>
       <c r="F46" s="3">
-        <v>2095300</v>
+        <v>1897300</v>
       </c>
       <c r="G46" s="3">
-        <v>53200</v>
+        <v>2175300</v>
       </c>
       <c r="H46" s="3">
-        <v>35600</v>
+        <v>55200</v>
       </c>
       <c r="I46" s="3">
-        <v>10800</v>
+        <v>36900</v>
       </c>
       <c r="J46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>287400</v>
+        <v>224100</v>
       </c>
       <c r="E47" s="3">
-        <v>141700</v>
+        <v>298400</v>
       </c>
       <c r="F47" s="3">
-        <v>60600</v>
+        <v>147200</v>
       </c>
       <c r="G47" s="3">
-        <v>4300</v>
+        <v>62900</v>
       </c>
       <c r="H47" s="3">
-        <v>6900</v>
+        <v>4500</v>
       </c>
       <c r="I47" s="3">
-        <v>10200</v>
+        <v>7100</v>
       </c>
       <c r="J47" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K47" s="3">
         <v>11700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110500</v>
+        <v>86900</v>
       </c>
       <c r="E48" s="3">
-        <v>262900</v>
+        <v>114700</v>
       </c>
       <c r="F48" s="3">
-        <v>221700</v>
+        <v>272900</v>
       </c>
       <c r="G48" s="3">
-        <v>171600</v>
+        <v>230200</v>
       </c>
       <c r="H48" s="3">
-        <v>74800</v>
+        <v>178200</v>
       </c>
       <c r="I48" s="3">
-        <v>18800</v>
+        <v>77700</v>
       </c>
       <c r="J48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25500</v>
+        <v>38400</v>
       </c>
       <c r="E49" s="3">
-        <v>331900</v>
+        <v>26500</v>
       </c>
       <c r="F49" s="3">
-        <v>380500</v>
+        <v>344600</v>
       </c>
       <c r="G49" s="3">
-        <v>27700</v>
+        <v>395100</v>
       </c>
       <c r="H49" s="3">
-        <v>17300</v>
+        <v>28700</v>
       </c>
       <c r="I49" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="J49" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,26 +2005,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
-        <v>25900</v>
-      </c>
       <c r="G52" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+        <v>26900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -1916,12 +2035,15 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1861500</v>
+        <v>1677200</v>
       </c>
       <c r="E54" s="3">
-        <v>2564600</v>
+        <v>1932700</v>
       </c>
       <c r="F54" s="3">
-        <v>2784100</v>
+        <v>2662600</v>
       </c>
       <c r="G54" s="3">
-        <v>244300</v>
+        <v>2890500</v>
       </c>
       <c r="H54" s="3">
-        <v>134600</v>
+        <v>253700</v>
       </c>
       <c r="I54" s="3">
-        <v>57100</v>
+        <v>139700</v>
       </c>
       <c r="J54" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K54" s="3">
         <v>19600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="E57" s="3">
-        <v>56100</v>
+        <v>15500</v>
       </c>
       <c r="F57" s="3">
-        <v>47000</v>
+        <v>58200</v>
       </c>
       <c r="G57" s="3">
-        <v>44300</v>
+        <v>48800</v>
       </c>
       <c r="H57" s="3">
-        <v>10500</v>
+        <v>46000</v>
       </c>
       <c r="I57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2052,84 +2185,93 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>27900</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="I58" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>57500</v>
+        <v>78700</v>
       </c>
       <c r="E59" s="3">
-        <v>219400</v>
+        <v>59700</v>
       </c>
       <c r="F59" s="3">
-        <v>396300</v>
+        <v>227800</v>
       </c>
       <c r="G59" s="3">
-        <v>12000</v>
+        <v>411500</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="I59" s="3">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72400</v>
+        <v>94200</v>
       </c>
       <c r="E60" s="3">
-        <v>275500</v>
+        <v>75200</v>
       </c>
       <c r="F60" s="3">
-        <v>443300</v>
+        <v>286000</v>
       </c>
       <c r="G60" s="3">
-        <v>44300</v>
+        <v>460300</v>
       </c>
       <c r="H60" s="3">
-        <v>10500</v>
+        <v>46000</v>
       </c>
       <c r="I60" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="J60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2146,50 +2288,56 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9600</v>
+        <v>3500</v>
       </c>
       <c r="E62" s="3">
-        <v>11300</v>
+        <v>9900</v>
       </c>
       <c r="F62" s="3">
-        <v>8900</v>
+        <v>11700</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>9200</v>
       </c>
       <c r="H62" s="3">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="I62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80600</v>
+        <v>95600</v>
       </c>
       <c r="E66" s="3">
-        <v>285400</v>
+        <v>83600</v>
       </c>
       <c r="F66" s="3">
-        <v>453600</v>
+        <v>296300</v>
       </c>
       <c r="G66" s="3">
-        <v>46600</v>
+        <v>470900</v>
       </c>
       <c r="H66" s="3">
-        <v>19500</v>
+        <v>48400</v>
       </c>
       <c r="I66" s="3">
-        <v>12300</v>
+        <v>20300</v>
       </c>
       <c r="J66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>878200</v>
+        <v>678500</v>
       </c>
       <c r="E72" s="3">
-        <v>1417700</v>
+        <v>911800</v>
       </c>
       <c r="F72" s="3">
-        <v>1515100</v>
+        <v>1471900</v>
       </c>
       <c r="G72" s="3">
-        <v>-35200</v>
+        <v>1573000</v>
       </c>
       <c r="H72" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1780900</v>
+        <v>1581600</v>
       </c>
       <c r="E76" s="3">
-        <v>2279200</v>
+        <v>1849000</v>
       </c>
       <c r="F76" s="3">
-        <v>2330500</v>
+        <v>2366300</v>
       </c>
       <c r="G76" s="3">
-        <v>197700</v>
+        <v>2419600</v>
       </c>
       <c r="H76" s="3">
-        <v>115000</v>
+        <v>205300</v>
       </c>
       <c r="I76" s="3">
-        <v>44900</v>
+        <v>119400</v>
       </c>
       <c r="J76" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K76" s="3">
         <v>15600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-527500</v>
+        <v>-233300</v>
       </c>
       <c r="E81" s="3">
-        <v>-97400</v>
+        <v>-547700</v>
       </c>
       <c r="F81" s="3">
-        <v>1553600</v>
+        <v>-101100</v>
       </c>
       <c r="G81" s="3">
-        <v>-28800</v>
+        <v>1612900</v>
       </c>
       <c r="H81" s="3">
-        <v>3300</v>
+        <v>-29900</v>
       </c>
       <c r="I81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20500</v>
+        <v>18100</v>
       </c>
       <c r="E83" s="3">
-        <v>9400</v>
+        <v>21300</v>
       </c>
       <c r="F83" s="3">
-        <v>5200</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3">
-        <v>2600</v>
+        <v>5400</v>
       </c>
       <c r="H83" s="3">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-204600</v>
+        <v>-123000</v>
       </c>
       <c r="E89" s="3">
-        <v>-189700</v>
+        <v>-212400</v>
       </c>
       <c r="F89" s="3">
-        <v>-173500</v>
+        <v>-197000</v>
       </c>
       <c r="G89" s="3">
-        <v>-10000</v>
+        <v>-180100</v>
       </c>
       <c r="H89" s="3">
-        <v>-7400</v>
+        <v>-10400</v>
       </c>
       <c r="I89" s="3">
-        <v>-8600</v>
+        <v>-7700</v>
       </c>
       <c r="J89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14800</v>
+        <v>-4800</v>
       </c>
       <c r="E91" s="3">
-        <v>-41800</v>
+        <v>-15400</v>
       </c>
       <c r="F91" s="3">
-        <v>-51500</v>
+        <v>-43400</v>
       </c>
       <c r="G91" s="3">
-        <v>-270000</v>
+        <v>-53500</v>
       </c>
       <c r="H91" s="3">
-        <v>-56900</v>
+        <v>-280300</v>
       </c>
       <c r="I91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-38500</v>
+        <v>-2500</v>
       </c>
       <c r="E94" s="3">
-        <v>26800</v>
+        <v>-40000</v>
       </c>
       <c r="F94" s="3">
-        <v>-803400</v>
+        <v>27900</v>
       </c>
       <c r="G94" s="3">
-        <v>-125100</v>
+        <v>-834100</v>
       </c>
       <c r="H94" s="3">
-        <v>-51600</v>
+        <v>-129800</v>
       </c>
       <c r="I94" s="3">
-        <v>-10700</v>
+        <v>-53600</v>
       </c>
       <c r="J94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,56 +3420,62 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17900</v>
+        <v>-4000</v>
       </c>
       <c r="E100" s="3">
-        <v>-7300</v>
+        <v>-18600</v>
       </c>
       <c r="F100" s="3">
-        <v>2473100</v>
+        <v>-7600</v>
       </c>
       <c r="G100" s="3">
-        <v>162600</v>
+        <v>2567600</v>
       </c>
       <c r="H100" s="3">
-        <v>66700</v>
+        <v>168800</v>
       </c>
       <c r="I100" s="3">
-        <v>22400</v>
+        <v>69200</v>
       </c>
       <c r="J100" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6500</v>
+        <v>-39600</v>
       </c>
       <c r="E101" s="3">
-        <v>8100</v>
+        <v>6800</v>
       </c>
       <c r="F101" s="3">
-        <v>69700</v>
+        <v>8400</v>
       </c>
       <c r="G101" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+        <v>72400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-5600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-254400</v>
+        <v>-169100</v>
       </c>
       <c r="E102" s="3">
-        <v>-162000</v>
+        <v>-264200</v>
       </c>
       <c r="F102" s="3">
-        <v>1565900</v>
+        <v>-168200</v>
       </c>
       <c r="G102" s="3">
-        <v>22100</v>
+        <v>1625700</v>
       </c>
       <c r="H102" s="3">
-        <v>7600</v>
+        <v>23000</v>
       </c>
       <c r="I102" s="3">
-        <v>3100</v>
+        <v>7900</v>
       </c>
       <c r="J102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>127100</v>
+        <v>124100</v>
       </c>
       <c r="E8" s="3">
-        <v>102900</v>
+        <v>100500</v>
       </c>
       <c r="F8" s="3">
-        <v>64600</v>
+        <v>63100</v>
       </c>
       <c r="G8" s="3">
-        <v>32800</v>
+        <v>32100</v>
       </c>
       <c r="H8" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="I8" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -750,22 +750,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>110500</v>
+        <v>107900</v>
       </c>
       <c r="E9" s="3">
-        <v>127200</v>
+        <v>124200</v>
       </c>
       <c r="F9" s="3">
-        <v>164600</v>
+        <v>160700</v>
       </c>
       <c r="G9" s="3">
-        <v>74000</v>
+        <v>72300</v>
       </c>
       <c r="H9" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="I9" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
@@ -783,22 +783,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="E10" s="3">
-        <v>-24200</v>
+        <v>-23700</v>
       </c>
       <c r="F10" s="3">
-        <v>-100000</v>
+        <v>-97600</v>
       </c>
       <c r="G10" s="3">
-        <v>-41200</v>
+        <v>-40200</v>
       </c>
       <c r="H10" s="3">
         <v>-1300</v>
       </c>
       <c r="I10" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="J10" s="3">
         <v>-300</v>
@@ -831,19 +831,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="E12" s="3">
-        <v>32300</v>
+        <v>31500</v>
       </c>
       <c r="F12" s="3">
-        <v>28200</v>
+        <v>27500</v>
       </c>
       <c r="G12" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="H12" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>97100</v>
+        <v>94800</v>
       </c>
       <c r="E14" s="3">
-        <v>502900</v>
+        <v>491000</v>
       </c>
       <c r="F14" s="3">
-        <v>68700</v>
+        <v>67100</v>
       </c>
       <c r="G14" s="3">
-        <v>-14100</v>
+        <v>-13800</v>
       </c>
       <c r="H14" s="3">
-        <v>-16000</v>
+        <v>-15600</v>
       </c>
       <c r="I14" s="3">
-        <v>-16100</v>
+        <v>-15700</v>
       </c>
       <c r="J14" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="K14" s="3">
         <v>1900</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="E15" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F15" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G15" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H15" s="3">
         <v>2300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>384600</v>
+        <v>375500</v>
       </c>
       <c r="E17" s="3">
-        <v>878100</v>
+        <v>857300</v>
       </c>
       <c r="F17" s="3">
-        <v>367900</v>
+        <v>359200</v>
       </c>
       <c r="G17" s="3">
-        <v>244800</v>
+        <v>239000</v>
       </c>
       <c r="H17" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="I17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J17" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K17" s="3">
         <v>5000</v>
@@ -1008,22 +1008,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-257500</v>
+        <v>-251400</v>
       </c>
       <c r="E18" s="3">
-        <v>-775100</v>
+        <v>-756800</v>
       </c>
       <c r="F18" s="3">
-        <v>-303300</v>
+        <v>-296200</v>
       </c>
       <c r="G18" s="3">
-        <v>-212000</v>
+        <v>-207000</v>
       </c>
       <c r="H18" s="3">
-        <v>-29500</v>
+        <v>-28800</v>
       </c>
       <c r="I18" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J18" s="3">
         <v>-2400</v>
@@ -1056,19 +1056,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71500</v>
+        <v>69800</v>
       </c>
       <c r="E20" s="3">
-        <v>226100</v>
+        <v>220700</v>
       </c>
       <c r="F20" s="3">
-        <v>202300</v>
+        <v>197500</v>
       </c>
       <c r="G20" s="3">
-        <v>1825900</v>
+        <v>1782700</v>
       </c>
       <c r="H20" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1089,22 +1089,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-167900</v>
+        <v>-164000</v>
       </c>
       <c r="E21" s="3">
-        <v>-527800</v>
+        <v>-515400</v>
       </c>
       <c r="F21" s="3">
-        <v>-91300</v>
+        <v>-89200</v>
       </c>
       <c r="G21" s="3">
-        <v>1619300</v>
+        <v>1581000</v>
       </c>
       <c r="H21" s="3">
-        <v>-27500</v>
+        <v>-26800</v>
       </c>
       <c r="I21" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J21" s="3">
         <v>-1900</v>
@@ -1155,22 +1155,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-186100</v>
+        <v>-181700</v>
       </c>
       <c r="E23" s="3">
-        <v>-549100</v>
+        <v>-536100</v>
       </c>
       <c r="F23" s="3">
-        <v>-101300</v>
+        <v>-98900</v>
       </c>
       <c r="G23" s="3">
-        <v>1612100</v>
+        <v>1574000</v>
       </c>
       <c r="H23" s="3">
-        <v>-30200</v>
+        <v>-29500</v>
       </c>
       <c r="I23" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J23" s="3">
         <v>-2400</v>
@@ -1188,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47300</v>
+        <v>46100</v>
       </c>
       <c r="E24" s="3">
         <v>-600</v>
       </c>
       <c r="F24" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-233300</v>
+        <v>-227800</v>
       </c>
       <c r="E26" s="3">
-        <v>-548500</v>
+        <v>-535600</v>
       </c>
       <c r="F26" s="3">
-        <v>-103200</v>
+        <v>-100700</v>
       </c>
       <c r="G26" s="3">
-        <v>1612100</v>
+        <v>1574000</v>
       </c>
       <c r="H26" s="3">
-        <v>-30200</v>
+        <v>-29500</v>
       </c>
       <c r="I26" s="3">
         <v>3400</v>
@@ -1287,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-233300</v>
+        <v>-227800</v>
       </c>
       <c r="E27" s="3">
-        <v>-547000</v>
+        <v>-534100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100200</v>
+        <v>-97900</v>
       </c>
       <c r="G27" s="3">
-        <v>1613400</v>
+        <v>1575300</v>
       </c>
       <c r="H27" s="3">
-        <v>-29900</v>
+        <v>-29200</v>
       </c>
       <c r="I27" s="3">
         <v>3400</v>
@@ -1452,19 +1452,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71500</v>
+        <v>-69800</v>
       </c>
       <c r="E32" s="3">
-        <v>-226100</v>
+        <v>-220700</v>
       </c>
       <c r="F32" s="3">
-        <v>-202300</v>
+        <v>-197500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1825900</v>
+        <v>-1782700</v>
       </c>
       <c r="H32" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1485,19 +1485,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-233300</v>
+        <v>-227800</v>
       </c>
       <c r="E33" s="3">
-        <v>-547700</v>
+        <v>-534700</v>
       </c>
       <c r="F33" s="3">
-        <v>-101100</v>
+        <v>-98700</v>
       </c>
       <c r="G33" s="3">
-        <v>1612900</v>
+        <v>1574800</v>
       </c>
       <c r="H33" s="3">
-        <v>-29900</v>
+        <v>-29200</v>
       </c>
       <c r="I33" s="3">
         <v>3400</v>
@@ -1551,19 +1551,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-233300</v>
+        <v>-227800</v>
       </c>
       <c r="E35" s="3">
-        <v>-547700</v>
+        <v>-534700</v>
       </c>
       <c r="F35" s="3">
-        <v>-101100</v>
+        <v>-98700</v>
       </c>
       <c r="G35" s="3">
-        <v>1612900</v>
+        <v>1574800</v>
       </c>
       <c r="H35" s="3">
-        <v>-29900</v>
+        <v>-29200</v>
       </c>
       <c r="I35" s="3">
         <v>3400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1057300</v>
+        <v>1032300</v>
       </c>
       <c r="E41" s="3">
-        <v>1226400</v>
+        <v>1197400</v>
       </c>
       <c r="F41" s="3">
-        <v>1490600</v>
+        <v>1455300</v>
       </c>
       <c r="G41" s="3">
-        <v>1658800</v>
+        <v>1619600</v>
       </c>
       <c r="H41" s="3">
-        <v>33100</v>
+        <v>32300</v>
       </c>
       <c r="I41" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="J41" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156400</v>
+        <v>152700</v>
       </c>
       <c r="E42" s="3">
-        <v>162700</v>
+        <v>158900</v>
       </c>
       <c r="F42" s="3">
-        <v>292800</v>
+        <v>285900</v>
       </c>
       <c r="G42" s="3">
-        <v>423600</v>
+        <v>413600</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52200</v>
+        <v>51000</v>
       </c>
       <c r="E43" s="3">
-        <v>46000</v>
+        <v>44900</v>
       </c>
       <c r="F43" s="3">
-        <v>36000</v>
+        <v>35200</v>
       </c>
       <c r="G43" s="3">
-        <v>29300</v>
+        <v>28600</v>
       </c>
       <c r="H43" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="I43" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51900</v>
+        <v>50700</v>
       </c>
       <c r="E44" s="3">
-        <v>45400</v>
+        <v>44300</v>
       </c>
       <c r="F44" s="3">
-        <v>60800</v>
+        <v>59400</v>
       </c>
       <c r="G44" s="3">
-        <v>52600</v>
+        <v>51400</v>
       </c>
       <c r="H44" s="3">
-        <v>22800</v>
+        <v>22200</v>
       </c>
       <c r="I44" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="J44" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="F45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
-        <v>17500</v>
-      </c>
       <c r="H45" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I45" s="3">
         <v>1100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1327600</v>
+        <v>1296200</v>
       </c>
       <c r="E46" s="3">
-        <v>1492900</v>
+        <v>1457600</v>
       </c>
       <c r="F46" s="3">
-        <v>1897300</v>
+        <v>1852400</v>
       </c>
       <c r="G46" s="3">
-        <v>2175300</v>
+        <v>2123900</v>
       </c>
       <c r="H46" s="3">
-        <v>55200</v>
+        <v>53900</v>
       </c>
       <c r="I46" s="3">
-        <v>36900</v>
+        <v>36100</v>
       </c>
       <c r="J46" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="K46" s="3">
         <v>1600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>224100</v>
+        <v>218800</v>
       </c>
       <c r="E47" s="3">
-        <v>298400</v>
+        <v>291300</v>
       </c>
       <c r="F47" s="3">
-        <v>147200</v>
+        <v>143700</v>
       </c>
       <c r="G47" s="3">
-        <v>62900</v>
+        <v>61500</v>
       </c>
       <c r="H47" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I47" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J47" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="K47" s="3">
         <v>11700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>86900</v>
+        <v>84800</v>
       </c>
       <c r="E48" s="3">
-        <v>114700</v>
+        <v>112000</v>
       </c>
       <c r="F48" s="3">
-        <v>272900</v>
+        <v>266500</v>
       </c>
       <c r="G48" s="3">
-        <v>230200</v>
+        <v>224800</v>
       </c>
       <c r="H48" s="3">
-        <v>178200</v>
+        <v>174000</v>
       </c>
       <c r="I48" s="3">
-        <v>77700</v>
+        <v>75800</v>
       </c>
       <c r="J48" s="3">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="K48" s="3">
         <v>3600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38400</v>
+        <v>37400</v>
       </c>
       <c r="E49" s="3">
-        <v>26500</v>
+        <v>25900</v>
       </c>
       <c r="F49" s="3">
-        <v>344600</v>
+        <v>336500</v>
       </c>
       <c r="G49" s="3">
-        <v>395100</v>
+        <v>385700</v>
       </c>
       <c r="H49" s="3">
-        <v>28700</v>
+        <v>28100</v>
       </c>
       <c r="I49" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="J49" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="K49" s="3">
         <v>2700</v>
@@ -2024,10 +2024,10 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>26900</v>
+        <v>26200</v>
       </c>
       <c r="H52" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1677200</v>
+        <v>1637600</v>
       </c>
       <c r="E54" s="3">
-        <v>1932700</v>
+        <v>1886900</v>
       </c>
       <c r="F54" s="3">
-        <v>2662600</v>
+        <v>2599700</v>
       </c>
       <c r="G54" s="3">
-        <v>2890500</v>
+        <v>2822100</v>
       </c>
       <c r="H54" s="3">
-        <v>253700</v>
+        <v>247700</v>
       </c>
       <c r="I54" s="3">
-        <v>139700</v>
+        <v>136400</v>
       </c>
       <c r="J54" s="3">
-        <v>59300</v>
+        <v>57900</v>
       </c>
       <c r="K54" s="3">
         <v>19600</v>
@@ -2144,22 +2144,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="E57" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="F57" s="3">
-        <v>58200</v>
+        <v>56800</v>
       </c>
       <c r="G57" s="3">
-        <v>48800</v>
+        <v>47700</v>
       </c>
       <c r="H57" s="3">
-        <v>46000</v>
+        <v>44900</v>
       </c>
       <c r="I57" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="J57" s="3">
         <v>1600</v>
@@ -2189,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="H58" s="3">
-        <v>29000</v>
+        <v>28300</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78700</v>
+        <v>76900</v>
       </c>
       <c r="E59" s="3">
-        <v>59700</v>
+        <v>58300</v>
       </c>
       <c r="F59" s="3">
-        <v>227800</v>
+        <v>222400</v>
       </c>
       <c r="G59" s="3">
-        <v>411500</v>
+        <v>401700</v>
       </c>
       <c r="H59" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>94200</v>
+        <v>92000</v>
       </c>
       <c r="E60" s="3">
-        <v>75200</v>
+        <v>73400</v>
       </c>
       <c r="F60" s="3">
-        <v>286000</v>
+        <v>279200</v>
       </c>
       <c r="G60" s="3">
-        <v>460300</v>
+        <v>449400</v>
       </c>
       <c r="H60" s="3">
-        <v>46000</v>
+        <v>44900</v>
       </c>
       <c r="I60" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="J60" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="K60" s="3">
         <v>3100</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="F62" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="G62" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="H62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J62" s="3">
         <v>2000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95600</v>
+        <v>93300</v>
       </c>
       <c r="E66" s="3">
-        <v>83600</v>
+        <v>81700</v>
       </c>
       <c r="F66" s="3">
-        <v>296300</v>
+        <v>289300</v>
       </c>
       <c r="G66" s="3">
-        <v>470900</v>
+        <v>459800</v>
       </c>
       <c r="H66" s="3">
-        <v>48400</v>
+        <v>47300</v>
       </c>
       <c r="I66" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="J66" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="K66" s="3">
         <v>4000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>678500</v>
+        <v>662400</v>
       </c>
       <c r="E72" s="3">
-        <v>911800</v>
+        <v>890200</v>
       </c>
       <c r="F72" s="3">
-        <v>1471900</v>
+        <v>1437100</v>
       </c>
       <c r="G72" s="3">
-        <v>1573000</v>
+        <v>1535800</v>
       </c>
       <c r="H72" s="3">
-        <v>-36500</v>
+        <v>-35600</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
       </c>
       <c r="J72" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K72" s="3">
         <v>-4900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1581600</v>
+        <v>1544200</v>
       </c>
       <c r="E76" s="3">
-        <v>1849000</v>
+        <v>1805300</v>
       </c>
       <c r="F76" s="3">
-        <v>2366300</v>
+        <v>2310300</v>
       </c>
       <c r="G76" s="3">
-        <v>2419600</v>
+        <v>2362300</v>
       </c>
       <c r="H76" s="3">
-        <v>205300</v>
+        <v>200400</v>
       </c>
       <c r="I76" s="3">
-        <v>119400</v>
+        <v>116600</v>
       </c>
       <c r="J76" s="3">
-        <v>46600</v>
+        <v>45500</v>
       </c>
       <c r="K76" s="3">
         <v>15600</v>
@@ -2857,19 +2857,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-233300</v>
+        <v>-227800</v>
       </c>
       <c r="E81" s="3">
-        <v>-547700</v>
+        <v>-534700</v>
       </c>
       <c r="F81" s="3">
-        <v>-101100</v>
+        <v>-98700</v>
       </c>
       <c r="G81" s="3">
-        <v>1612900</v>
+        <v>1574800</v>
       </c>
       <c r="H81" s="3">
-        <v>-29900</v>
+        <v>-29200</v>
       </c>
       <c r="I81" s="3">
         <v>3400</v>
@@ -2905,22 +2905,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="E83" s="3">
-        <v>21300</v>
+        <v>20800</v>
       </c>
       <c r="F83" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="G83" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="H83" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-123000</v>
+        <v>-120100</v>
       </c>
       <c r="E89" s="3">
-        <v>-212400</v>
+        <v>-207400</v>
       </c>
       <c r="F89" s="3">
-        <v>-197000</v>
+        <v>-192300</v>
       </c>
       <c r="G89" s="3">
-        <v>-180100</v>
+        <v>-175900</v>
       </c>
       <c r="H89" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="I89" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="J89" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="K89" s="3">
         <v>-1800</v>
@@ -3151,22 +3151,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15400</v>
+        <v>-15000</v>
       </c>
       <c r="F91" s="3">
-        <v>-43400</v>
+        <v>-42400</v>
       </c>
       <c r="G91" s="3">
-        <v>-53500</v>
+        <v>-52200</v>
       </c>
       <c r="H91" s="3">
-        <v>-280300</v>
+        <v>-273700</v>
       </c>
       <c r="I91" s="3">
-        <v>-59000</v>
+        <v>-57600</v>
       </c>
       <c r="J91" s="3">
         <v>-2100</v>
@@ -3253,22 +3253,22 @@
         <v>-2500</v>
       </c>
       <c r="E94" s="3">
-        <v>-40000</v>
+        <v>-39000</v>
       </c>
       <c r="F94" s="3">
-        <v>27900</v>
+        <v>27200</v>
       </c>
       <c r="G94" s="3">
-        <v>-834100</v>
+        <v>-814400</v>
       </c>
       <c r="H94" s="3">
-        <v>-129800</v>
+        <v>-126800</v>
       </c>
       <c r="I94" s="3">
-        <v>-53600</v>
+        <v>-52300</v>
       </c>
       <c r="J94" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="E100" s="3">
-        <v>-18600</v>
+        <v>-18100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="G100" s="3">
-        <v>2567600</v>
+        <v>2506900</v>
       </c>
       <c r="H100" s="3">
-        <v>168800</v>
+        <v>164900</v>
       </c>
       <c r="I100" s="3">
-        <v>69200</v>
+        <v>67600</v>
       </c>
       <c r="J100" s="3">
-        <v>23300</v>
+        <v>22700</v>
       </c>
       <c r="K100" s="3">
         <v>4200</v>
@@ -3463,19 +3463,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39600</v>
+        <v>-38700</v>
       </c>
       <c r="E101" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F101" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>72400</v>
+        <v>70700</v>
       </c>
       <c r="H101" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-169100</v>
+        <v>-165100</v>
       </c>
       <c r="E102" s="3">
-        <v>-264200</v>
+        <v>-257900</v>
       </c>
       <c r="F102" s="3">
-        <v>-168200</v>
+        <v>-164300</v>
       </c>
       <c r="G102" s="3">
-        <v>1625700</v>
+        <v>1587300</v>
       </c>
       <c r="H102" s="3">
-        <v>23000</v>
+        <v>22400</v>
       </c>
       <c r="I102" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="J102" s="3">
         <v>3200</v>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -750,13 +750,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>107900</v>
+        <v>108000</v>
       </c>
       <c r="E9" s="3">
         <v>124200</v>
       </c>
       <c r="F9" s="3">
-        <v>160700</v>
+        <v>160800</v>
       </c>
       <c r="G9" s="3">
         <v>72300</v>
@@ -789,7 +789,7 @@
         <v>-23700</v>
       </c>
       <c r="F10" s="3">
-        <v>-97600</v>
+        <v>-97700</v>
       </c>
       <c r="G10" s="3">
         <v>-40200</v>
@@ -843,7 +843,7 @@
         <v>16400</v>
       </c>
       <c r="H12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -900,7 +900,7 @@
         <v>94800</v>
       </c>
       <c r="E14" s="3">
-        <v>491000</v>
+        <v>491200</v>
       </c>
       <c r="F14" s="3">
         <v>67100</v>
@@ -975,16 +975,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>375500</v>
+        <v>375700</v>
       </c>
       <c r="E17" s="3">
-        <v>857300</v>
+        <v>857700</v>
       </c>
       <c r="F17" s="3">
-        <v>359200</v>
+        <v>359400</v>
       </c>
       <c r="G17" s="3">
-        <v>239000</v>
+        <v>239200</v>
       </c>
       <c r="H17" s="3">
         <v>45200</v>
@@ -1008,16 +1008,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-251400</v>
+        <v>-251500</v>
       </c>
       <c r="E18" s="3">
-        <v>-756800</v>
+        <v>-757200</v>
       </c>
       <c r="F18" s="3">
-        <v>-296200</v>
+        <v>-296300</v>
       </c>
       <c r="G18" s="3">
-        <v>-207000</v>
+        <v>-207100</v>
       </c>
       <c r="H18" s="3">
         <v>-28800</v>
@@ -1059,13 +1059,13 @@
         <v>69800</v>
       </c>
       <c r="E20" s="3">
-        <v>220700</v>
+        <v>220800</v>
       </c>
       <c r="F20" s="3">
-        <v>197500</v>
+        <v>197600</v>
       </c>
       <c r="G20" s="3">
-        <v>1782700</v>
+        <v>1783600</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
@@ -1092,16 +1092,16 @@
         <v>-164000</v>
       </c>
       <c r="E21" s="3">
-        <v>-515400</v>
+        <v>-515600</v>
       </c>
       <c r="F21" s="3">
         <v>-89200</v>
       </c>
       <c r="G21" s="3">
-        <v>1581000</v>
+        <v>1581800</v>
       </c>
       <c r="H21" s="3">
-        <v>-26800</v>
+        <v>-26900</v>
       </c>
       <c r="I21" s="3">
         <v>5100</v>
@@ -1158,13 +1158,13 @@
         <v>-181700</v>
       </c>
       <c r="E23" s="3">
-        <v>-536100</v>
+        <v>-536400</v>
       </c>
       <c r="F23" s="3">
-        <v>-98900</v>
+        <v>-99000</v>
       </c>
       <c r="G23" s="3">
-        <v>1574000</v>
+        <v>1574800</v>
       </c>
       <c r="H23" s="3">
         <v>-29500</v>
@@ -1188,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46100</v>
+        <v>46200</v>
       </c>
       <c r="E24" s="3">
         <v>-600</v>
@@ -1254,16 +1254,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-227800</v>
+        <v>-227900</v>
       </c>
       <c r="E26" s="3">
-        <v>-535600</v>
+        <v>-535800</v>
       </c>
       <c r="F26" s="3">
-        <v>-100700</v>
+        <v>-100800</v>
       </c>
       <c r="G26" s="3">
-        <v>1574000</v>
+        <v>1574800</v>
       </c>
       <c r="H26" s="3">
         <v>-29500</v>
@@ -1287,16 +1287,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-227800</v>
+        <v>-227900</v>
       </c>
       <c r="E27" s="3">
-        <v>-534100</v>
+        <v>-534300</v>
       </c>
       <c r="F27" s="3">
         <v>-97900</v>
       </c>
       <c r="G27" s="3">
-        <v>1575300</v>
+        <v>1576100</v>
       </c>
       <c r="H27" s="3">
         <v>-29200</v>
@@ -1455,13 +1455,13 @@
         <v>-69800</v>
       </c>
       <c r="E32" s="3">
-        <v>-220700</v>
+        <v>-220800</v>
       </c>
       <c r="F32" s="3">
-        <v>-197500</v>
+        <v>-197600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1782700</v>
+        <v>-1783600</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
@@ -1485,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-227800</v>
+        <v>-227900</v>
       </c>
       <c r="E33" s="3">
-        <v>-534700</v>
+        <v>-535000</v>
       </c>
       <c r="F33" s="3">
-        <v>-98700</v>
+        <v>-98800</v>
       </c>
       <c r="G33" s="3">
-        <v>1574800</v>
+        <v>1575600</v>
       </c>
       <c r="H33" s="3">
         <v>-29200</v>
@@ -1551,16 +1551,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-227800</v>
+        <v>-227900</v>
       </c>
       <c r="E35" s="3">
-        <v>-534700</v>
+        <v>-535000</v>
       </c>
       <c r="F35" s="3">
-        <v>-98700</v>
+        <v>-98800</v>
       </c>
       <c r="G35" s="3">
-        <v>1574800</v>
+        <v>1575600</v>
       </c>
       <c r="H35" s="3">
         <v>-29200</v>
@@ -1652,16 +1652,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1032300</v>
+        <v>1032800</v>
       </c>
       <c r="E41" s="3">
-        <v>1197400</v>
+        <v>1198000</v>
       </c>
       <c r="F41" s="3">
-        <v>1455300</v>
+        <v>1456100</v>
       </c>
       <c r="G41" s="3">
-        <v>1619600</v>
+        <v>1620400</v>
       </c>
       <c r="H41" s="3">
         <v>32300</v>
@@ -1688,13 +1688,13 @@
         <v>152700</v>
       </c>
       <c r="E42" s="3">
-        <v>158900</v>
+        <v>159000</v>
       </c>
       <c r="F42" s="3">
-        <v>285900</v>
+        <v>286000</v>
       </c>
       <c r="G42" s="3">
-        <v>413600</v>
+        <v>413800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>51000</v>
       </c>
       <c r="E43" s="3">
-        <v>44900</v>
+        <v>45000</v>
       </c>
       <c r="F43" s="3">
         <v>35200</v>
@@ -1817,19 +1817,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1296200</v>
+        <v>1296900</v>
       </c>
       <c r="E46" s="3">
-        <v>1457600</v>
+        <v>1458400</v>
       </c>
       <c r="F46" s="3">
-        <v>1852400</v>
+        <v>1853400</v>
       </c>
       <c r="G46" s="3">
-        <v>2123900</v>
+        <v>2125000</v>
       </c>
       <c r="H46" s="3">
-        <v>53900</v>
+        <v>54000</v>
       </c>
       <c r="I46" s="3">
         <v>36100</v>
@@ -1850,10 +1850,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>218800</v>
+        <v>218900</v>
       </c>
       <c r="E47" s="3">
-        <v>291300</v>
+        <v>291500</v>
       </c>
       <c r="F47" s="3">
         <v>143700</v>
@@ -1883,22 +1883,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84800</v>
+        <v>84900</v>
       </c>
       <c r="E48" s="3">
         <v>112000</v>
       </c>
       <c r="F48" s="3">
-        <v>266500</v>
+        <v>266600</v>
       </c>
       <c r="G48" s="3">
-        <v>224800</v>
+        <v>224900</v>
       </c>
       <c r="H48" s="3">
-        <v>174000</v>
+        <v>174100</v>
       </c>
       <c r="I48" s="3">
-        <v>75800</v>
+        <v>75900</v>
       </c>
       <c r="J48" s="3">
         <v>19100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="E49" s="3">
         <v>25900</v>
       </c>
       <c r="F49" s="3">
-        <v>336500</v>
+        <v>336700</v>
       </c>
       <c r="G49" s="3">
-        <v>385700</v>
+        <v>385900</v>
       </c>
       <c r="H49" s="3">
         <v>28100</v>
       </c>
       <c r="I49" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="J49" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="K49" s="3">
         <v>2700</v>
@@ -2024,7 +2024,7 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="H52" s="3">
         <v>6300</v>
@@ -2081,22 +2081,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1637600</v>
+        <v>1638400</v>
       </c>
       <c r="E54" s="3">
-        <v>1886900</v>
+        <v>1887900</v>
       </c>
       <c r="F54" s="3">
-        <v>2599700</v>
+        <v>2601000</v>
       </c>
       <c r="G54" s="3">
-        <v>2822100</v>
+        <v>2823600</v>
       </c>
       <c r="H54" s="3">
-        <v>247700</v>
+        <v>247800</v>
       </c>
       <c r="I54" s="3">
-        <v>136400</v>
+        <v>136500</v>
       </c>
       <c r="J54" s="3">
         <v>57900</v>
@@ -2147,10 +2147,10 @@
         <v>15100</v>
       </c>
       <c r="E57" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F57" s="3">
-        <v>56800</v>
+        <v>56900</v>
       </c>
       <c r="G57" s="3">
         <v>47700</v>
@@ -2216,10 +2216,10 @@
         <v>58300</v>
       </c>
       <c r="F59" s="3">
-        <v>222400</v>
+        <v>222500</v>
       </c>
       <c r="G59" s="3">
-        <v>401700</v>
+        <v>402000</v>
       </c>
       <c r="H59" s="3">
         <v>12200</v>
@@ -2249,10 +2249,10 @@
         <v>73400</v>
       </c>
       <c r="F60" s="3">
-        <v>279200</v>
+        <v>279400</v>
       </c>
       <c r="G60" s="3">
-        <v>449400</v>
+        <v>449600</v>
       </c>
       <c r="H60" s="3">
         <v>44900</v>
@@ -2441,16 +2441,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93300</v>
+        <v>93400</v>
       </c>
       <c r="E66" s="3">
         <v>81700</v>
       </c>
       <c r="F66" s="3">
-        <v>289300</v>
+        <v>289500</v>
       </c>
       <c r="G66" s="3">
-        <v>459800</v>
+        <v>460000</v>
       </c>
       <c r="H66" s="3">
         <v>47300</v>
@@ -2621,19 +2621,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>662400</v>
+        <v>662800</v>
       </c>
       <c r="E72" s="3">
-        <v>890200</v>
+        <v>890700</v>
       </c>
       <c r="F72" s="3">
-        <v>1437100</v>
+        <v>1437800</v>
       </c>
       <c r="G72" s="3">
-        <v>1535800</v>
+        <v>1536600</v>
       </c>
       <c r="H72" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
@@ -2753,22 +2753,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1544200</v>
+        <v>1545000</v>
       </c>
       <c r="E76" s="3">
-        <v>1805300</v>
+        <v>1806200</v>
       </c>
       <c r="F76" s="3">
-        <v>2310300</v>
+        <v>2311500</v>
       </c>
       <c r="G76" s="3">
-        <v>2362300</v>
+        <v>2363600</v>
       </c>
       <c r="H76" s="3">
-        <v>200400</v>
+        <v>200500</v>
       </c>
       <c r="I76" s="3">
-        <v>116600</v>
+        <v>116700</v>
       </c>
       <c r="J76" s="3">
         <v>45500</v>
@@ -2857,16 +2857,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-227800</v>
+        <v>-227900</v>
       </c>
       <c r="E81" s="3">
-        <v>-534700</v>
+        <v>-535000</v>
       </c>
       <c r="F81" s="3">
-        <v>-98700</v>
+        <v>-98800</v>
       </c>
       <c r="G81" s="3">
-        <v>1574800</v>
+        <v>1575600</v>
       </c>
       <c r="H81" s="3">
         <v>-29200</v>
@@ -3106,16 +3106,16 @@
         <v>-120100</v>
       </c>
       <c r="E89" s="3">
-        <v>-207400</v>
+        <v>-207500</v>
       </c>
       <c r="F89" s="3">
-        <v>-192300</v>
+        <v>-192400</v>
       </c>
       <c r="G89" s="3">
-        <v>-175900</v>
+        <v>-176000</v>
       </c>
       <c r="H89" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I89" s="3">
         <v>-7500</v>
@@ -3154,7 +3154,7 @@
         <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="F91" s="3">
         <v>-42400</v>
@@ -3163,10 +3163,10 @@
         <v>-52200</v>
       </c>
       <c r="H91" s="3">
-        <v>-273700</v>
+        <v>-273800</v>
       </c>
       <c r="I91" s="3">
-        <v>-57600</v>
+        <v>-57700</v>
       </c>
       <c r="J91" s="3">
         <v>-2100</v>
@@ -3259,13 +3259,13 @@
         <v>27200</v>
       </c>
       <c r="G94" s="3">
-        <v>-814400</v>
+        <v>-814800</v>
       </c>
       <c r="H94" s="3">
         <v>-126800</v>
       </c>
       <c r="I94" s="3">
-        <v>-52300</v>
+        <v>-52400</v>
       </c>
       <c r="J94" s="3">
         <v>-10800</v>
@@ -3433,13 +3433,13 @@
         <v>-3900</v>
       </c>
       <c r="E100" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="F100" s="3">
         <v>-7400</v>
       </c>
       <c r="G100" s="3">
-        <v>2506900</v>
+        <v>2508200</v>
       </c>
       <c r="H100" s="3">
         <v>164900</v>
@@ -3496,16 +3496,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-165100</v>
+        <v>-165200</v>
       </c>
       <c r="E102" s="3">
-        <v>-257900</v>
+        <v>-258100</v>
       </c>
       <c r="F102" s="3">
         <v>-164300</v>
       </c>
       <c r="G102" s="3">
-        <v>1587300</v>
+        <v>1588100</v>
       </c>
       <c r="H102" s="3">
         <v>22400</v>

--- a/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRON_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>124100</v>
+        <v>126400</v>
       </c>
       <c r="E8" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="F8" s="3">
-        <v>63100</v>
+        <v>64300</v>
       </c>
       <c r="G8" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="H8" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="I8" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -750,22 +750,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>108000</v>
+        <v>110000</v>
       </c>
       <c r="E9" s="3">
-        <v>124200</v>
+        <v>126500</v>
       </c>
       <c r="F9" s="3">
-        <v>160800</v>
+        <v>163800</v>
       </c>
       <c r="G9" s="3">
-        <v>72300</v>
+        <v>73600</v>
       </c>
       <c r="H9" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="I9" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
@@ -783,22 +783,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="E10" s="3">
-        <v>-23700</v>
+        <v>-24100</v>
       </c>
       <c r="F10" s="3">
-        <v>-97700</v>
+        <v>-99500</v>
       </c>
       <c r="G10" s="3">
-        <v>-40200</v>
+        <v>-41000</v>
       </c>
       <c r="H10" s="3">
         <v>-1300</v>
       </c>
       <c r="I10" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="J10" s="3">
         <v>-300</v>
@@ -831,16 +831,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="E12" s="3">
-        <v>31500</v>
+        <v>32100</v>
       </c>
       <c r="F12" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="G12" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="H12" s="3">
         <v>2500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>94800</v>
+        <v>96600</v>
       </c>
       <c r="E14" s="3">
-        <v>491200</v>
+        <v>500200</v>
       </c>
       <c r="F14" s="3">
-        <v>67100</v>
+        <v>68300</v>
       </c>
       <c r="G14" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="H14" s="3">
-        <v>-15600</v>
+        <v>-15900</v>
       </c>
       <c r="I14" s="3">
-        <v>-15700</v>
+        <v>-16000</v>
       </c>
       <c r="J14" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K14" s="3">
         <v>1900</v>
@@ -930,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E15" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F15" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G15" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H15" s="3">
         <v>2300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>375700</v>
+        <v>382600</v>
       </c>
       <c r="E17" s="3">
-        <v>857700</v>
+        <v>873500</v>
       </c>
       <c r="F17" s="3">
-        <v>359400</v>
+        <v>366000</v>
       </c>
       <c r="G17" s="3">
-        <v>239200</v>
+        <v>243600</v>
       </c>
       <c r="H17" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="I17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J17" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K17" s="3">
         <v>5000</v>
@@ -1008,19 +1008,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-251500</v>
+        <v>-256200</v>
       </c>
       <c r="E18" s="3">
-        <v>-757200</v>
+        <v>-771100</v>
       </c>
       <c r="F18" s="3">
-        <v>-296300</v>
+        <v>-301800</v>
       </c>
       <c r="G18" s="3">
-        <v>-207100</v>
+        <v>-210900</v>
       </c>
       <c r="H18" s="3">
-        <v>-28800</v>
+        <v>-29400</v>
       </c>
       <c r="I18" s="3">
         <v>3800</v>
@@ -1056,19 +1056,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>69800</v>
+        <v>71100</v>
       </c>
       <c r="E20" s="3">
-        <v>220800</v>
+        <v>224900</v>
       </c>
       <c r="F20" s="3">
-        <v>197600</v>
+        <v>201200</v>
       </c>
       <c r="G20" s="3">
-        <v>1783600</v>
+        <v>1816300</v>
       </c>
       <c r="H20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1089,22 +1089,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-164000</v>
+        <v>-167100</v>
       </c>
       <c r="E21" s="3">
-        <v>-515600</v>
+        <v>-525200</v>
       </c>
       <c r="F21" s="3">
-        <v>-89200</v>
+        <v>-90900</v>
       </c>
       <c r="G21" s="3">
-        <v>1581800</v>
+        <v>1610800</v>
       </c>
       <c r="H21" s="3">
-        <v>-26900</v>
+        <v>-27400</v>
       </c>
       <c r="I21" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J21" s="3">
         <v>-1900</v>
@@ -1155,19 +1155,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-181700</v>
+        <v>-185100</v>
       </c>
       <c r="E23" s="3">
-        <v>-536400</v>
+        <v>-546300</v>
       </c>
       <c r="F23" s="3">
-        <v>-99000</v>
+        <v>-100800</v>
       </c>
       <c r="G23" s="3">
-        <v>1574800</v>
+        <v>1603700</v>
       </c>
       <c r="H23" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="I23" s="3">
         <v>3800</v>
@@ -1188,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
         <v>-600</v>
       </c>
       <c r="F24" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1254,19 +1254,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-227900</v>
+        <v>-232100</v>
       </c>
       <c r="E26" s="3">
-        <v>-535800</v>
+        <v>-545700</v>
       </c>
       <c r="F26" s="3">
-        <v>-100800</v>
+        <v>-102600</v>
       </c>
       <c r="G26" s="3">
-        <v>1574800</v>
+        <v>1603700</v>
       </c>
       <c r="H26" s="3">
-        <v>-29500</v>
+        <v>-30000</v>
       </c>
       <c r="I26" s="3">
         <v>3400</v>
@@ -1287,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-227900</v>
+        <v>-232100</v>
       </c>
       <c r="E27" s="3">
-        <v>-534300</v>
+        <v>-544200</v>
       </c>
       <c r="F27" s="3">
-        <v>-97900</v>
+        <v>-99700</v>
       </c>
       <c r="G27" s="3">
-        <v>1576100</v>
+        <v>1605000</v>
       </c>
       <c r="H27" s="3">
-        <v>-29200</v>
+        <v>-29800</v>
       </c>
       <c r="I27" s="3">
         <v>3400</v>
@@ -1452,19 +1452,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69800</v>
+        <v>-71100</v>
       </c>
       <c r="E32" s="3">
-        <v>-220800</v>
+        <v>-224900</v>
       </c>
       <c r="F32" s="3">
-        <v>-197600</v>
+        <v>-201200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1783600</v>
+        <v>-1816300</v>
       </c>
       <c r="H32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1485,19 +1485,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-227900</v>
+        <v>-232100</v>
       </c>
       <c r="E33" s="3">
-        <v>-535000</v>
+        <v>-544800</v>
       </c>
       <c r="F33" s="3">
-        <v>-98800</v>
+        <v>-100600</v>
       </c>
       <c r="G33" s="3">
-        <v>1575600</v>
+        <v>1604500</v>
       </c>
       <c r="H33" s="3">
-        <v>-29200</v>
+        <v>-29800</v>
       </c>
       <c r="I33" s="3">
         <v>3400</v>
@@ -1551,19 +1551,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-227900</v>
+        <v>-232100</v>
       </c>
       <c r="E35" s="3">
-        <v>-535000</v>
+        <v>-544800</v>
       </c>
       <c r="F35" s="3">
-        <v>-98800</v>
+        <v>-100600</v>
       </c>
       <c r="G35" s="3">
-        <v>1575600</v>
+        <v>1604500</v>
       </c>
       <c r="H35" s="3">
-        <v>-29200</v>
+        <v>-29800</v>
       </c>
       <c r="I35" s="3">
         <v>3400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1032800</v>
+        <v>1051800</v>
       </c>
       <c r="E41" s="3">
-        <v>1198000</v>
+        <v>1220000</v>
       </c>
       <c r="F41" s="3">
-        <v>1456100</v>
+        <v>1482800</v>
       </c>
       <c r="G41" s="3">
-        <v>1620400</v>
+        <v>1650200</v>
       </c>
       <c r="H41" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="I41" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J41" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>152700</v>
+        <v>155500</v>
       </c>
       <c r="E42" s="3">
-        <v>159000</v>
+        <v>161900</v>
       </c>
       <c r="F42" s="3">
-        <v>286000</v>
+        <v>291300</v>
       </c>
       <c r="G42" s="3">
-        <v>413800</v>
+        <v>421400</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="E43" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="F43" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="G43" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="H43" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="I43" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>50700</v>
+        <v>51700</v>
       </c>
       <c r="E44" s="3">
-        <v>44300</v>
+        <v>45100</v>
       </c>
       <c r="F44" s="3">
-        <v>59400</v>
+        <v>60500</v>
       </c>
       <c r="G44" s="3">
-        <v>51400</v>
+        <v>52300</v>
       </c>
       <c r="H44" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="I44" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="J44" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="G45" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="H45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I45" s="3">
         <v>1100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1296900</v>
+        <v>1320700</v>
       </c>
       <c r="E46" s="3">
-        <v>1458400</v>
+        <v>1485200</v>
       </c>
       <c r="F46" s="3">
-        <v>1853400</v>
+        <v>1887400</v>
       </c>
       <c r="G46" s="3">
-        <v>2125000</v>
+        <v>2164000</v>
       </c>
       <c r="H46" s="3">
-        <v>54000</v>
+        <v>54900</v>
       </c>
       <c r="I46" s="3">
-        <v>36100</v>
+        <v>36700</v>
       </c>
       <c r="J46" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="K46" s="3">
         <v>1600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>218900</v>
+        <v>223000</v>
       </c>
       <c r="E47" s="3">
-        <v>291500</v>
+        <v>296800</v>
       </c>
       <c r="F47" s="3">
-        <v>143700</v>
+        <v>146400</v>
       </c>
       <c r="G47" s="3">
-        <v>61500</v>
+        <v>62600</v>
       </c>
       <c r="H47" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I47" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="J47" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="K47" s="3">
         <v>11700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84900</v>
+        <v>86400</v>
       </c>
       <c r="E48" s="3">
-        <v>112000</v>
+        <v>114100</v>
       </c>
       <c r="F48" s="3">
-        <v>266600</v>
+        <v>271500</v>
       </c>
       <c r="G48" s="3">
-        <v>224900</v>
+        <v>229000</v>
       </c>
       <c r="H48" s="3">
-        <v>174100</v>
+        <v>177300</v>
       </c>
       <c r="I48" s="3">
-        <v>75900</v>
+        <v>77300</v>
       </c>
       <c r="J48" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="K48" s="3">
         <v>3600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="E49" s="3">
-        <v>25900</v>
+        <v>26400</v>
       </c>
       <c r="F49" s="3">
-        <v>336700</v>
+        <v>342800</v>
       </c>
       <c r="G49" s="3">
-        <v>385900</v>
+        <v>393000</v>
       </c>
       <c r="H49" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="I49" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="J49" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="K49" s="3">
         <v>2700</v>
@@ -2024,10 +2024,10 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>26300</v>
+        <v>26700</v>
       </c>
       <c r="H52" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1638400</v>
+        <v>1668500</v>
       </c>
       <c r="E54" s="3">
-        <v>1887900</v>
+        <v>1922600</v>
       </c>
       <c r="F54" s="3">
-        <v>2601000</v>
+        <v>2648800</v>
       </c>
       <c r="G54" s="3">
-        <v>2823600</v>
+        <v>2875400</v>
       </c>
       <c r="H54" s="3">
-        <v>247800</v>
+        <v>252400</v>
       </c>
       <c r="I54" s="3">
-        <v>136500</v>
+        <v>139000</v>
       </c>
       <c r="J54" s="3">
-        <v>57900</v>
+        <v>59000</v>
       </c>
       <c r="K54" s="3">
         <v>19600</v>
@@ -2144,22 +2144,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="E57" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="F57" s="3">
-        <v>56900</v>
+        <v>57900</v>
       </c>
       <c r="G57" s="3">
-        <v>47700</v>
+        <v>48600</v>
       </c>
       <c r="H57" s="3">
-        <v>44900</v>
+        <v>45700</v>
       </c>
       <c r="I57" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J57" s="3">
         <v>1600</v>
@@ -2189,13 +2189,13 @@
         <v>4</v>
       </c>
       <c r="H58" s="3">
-        <v>28300</v>
+        <v>28800</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76900</v>
+        <v>78300</v>
       </c>
       <c r="E59" s="3">
-        <v>58300</v>
+        <v>59400</v>
       </c>
       <c r="F59" s="3">
-        <v>222500</v>
+        <v>226600</v>
       </c>
       <c r="G59" s="3">
-        <v>402000</v>
+        <v>409300</v>
       </c>
       <c r="H59" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92000</v>
+        <v>93700</v>
       </c>
       <c r="E60" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="F60" s="3">
-        <v>279400</v>
+        <v>284500</v>
       </c>
       <c r="G60" s="3">
-        <v>449600</v>
+        <v>457900</v>
       </c>
       <c r="H60" s="3">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="I60" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J60" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="K60" s="3">
         <v>3100</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2309,19 +2309,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E62" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="F62" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="G62" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="H62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I62" s="3">
         <v>1900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93400</v>
+        <v>95100</v>
       </c>
       <c r="E66" s="3">
-        <v>81700</v>
+        <v>83200</v>
       </c>
       <c r="F66" s="3">
-        <v>289500</v>
+        <v>294800</v>
       </c>
       <c r="G66" s="3">
-        <v>460000</v>
+        <v>468400</v>
       </c>
       <c r="H66" s="3">
-        <v>47300</v>
+        <v>48200</v>
       </c>
       <c r="I66" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="J66" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="K66" s="3">
         <v>4000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>662800</v>
+        <v>674900</v>
       </c>
       <c r="E72" s="3">
-        <v>890700</v>
+        <v>907000</v>
       </c>
       <c r="F72" s="3">
-        <v>1437800</v>
+        <v>1464200</v>
       </c>
       <c r="G72" s="3">
-        <v>1536600</v>
+        <v>1564800</v>
       </c>
       <c r="H72" s="3">
-        <v>-35700</v>
+        <v>-36300</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
       </c>
       <c r="J72" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K72" s="3">
         <v>-4900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1545000</v>
+        <v>1573400</v>
       </c>
       <c r="E76" s="3">
-        <v>1806200</v>
+        <v>1839400</v>
       </c>
       <c r="F76" s="3">
-        <v>2311500</v>
+        <v>2354000</v>
       </c>
       <c r="G76" s="3">
-        <v>2363600</v>
+        <v>2407000</v>
       </c>
       <c r="H76" s="3">
-        <v>200500</v>
+        <v>204200</v>
       </c>
       <c r="I76" s="3">
-        <v>116700</v>
+        <v>118800</v>
       </c>
       <c r="J76" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="K76" s="3">
         <v>15600</v>
@@ -2857,19 +2857,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-227900</v>
+        <v>-232100</v>
       </c>
       <c r="E81" s="3">
-        <v>-535000</v>
+        <v>-544800</v>
       </c>
       <c r="F81" s="3">
-        <v>-98800</v>
+        <v>-100600</v>
       </c>
       <c r="G81" s="3">
-        <v>1575600</v>
+        <v>1604500</v>
       </c>
       <c r="H81" s="3">
-        <v>-29200</v>
+        <v>-29800</v>
       </c>
       <c r="I81" s="3">
         <v>3400</v>
@@ -2905,22 +2905,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E83" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="F83" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H83" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-120100</v>
+        <v>-122300</v>
       </c>
       <c r="E89" s="3">
-        <v>-207500</v>
+        <v>-211300</v>
       </c>
       <c r="F89" s="3">
-        <v>-192400</v>
+        <v>-195900</v>
       </c>
       <c r="G89" s="3">
-        <v>-176000</v>
+        <v>-179200</v>
       </c>
       <c r="H89" s="3">
-        <v>-10200</v>
+        <v>-10300</v>
       </c>
       <c r="I89" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="J89" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="K89" s="3">
         <v>-1800</v>
@@ -3154,19 +3154,19 @@
         <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="F91" s="3">
-        <v>-42400</v>
+        <v>-43200</v>
       </c>
       <c r="G91" s="3">
-        <v>-52200</v>
+        <v>-53200</v>
       </c>
       <c r="H91" s="3">
-        <v>-273800</v>
+        <v>-278800</v>
       </c>
       <c r="I91" s="3">
-        <v>-57700</v>
+        <v>-58700</v>
       </c>
       <c r="J91" s="3">
         <v>-2100</v>
@@ -3253,22 +3253,22 @@
         <v>-2500</v>
       </c>
       <c r="E94" s="3">
-        <v>-39000</v>
+        <v>-39700</v>
       </c>
       <c r="F94" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="G94" s="3">
-        <v>-814800</v>
+        <v>-829800</v>
       </c>
       <c r="H94" s="3">
-        <v>-126800</v>
+        <v>-129200</v>
       </c>
       <c r="I94" s="3">
-        <v>-52400</v>
+        <v>-53300</v>
       </c>
       <c r="J94" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E100" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="F100" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="G100" s="3">
-        <v>2508200</v>
+        <v>2554200</v>
       </c>
       <c r="H100" s="3">
-        <v>164900</v>
+        <v>168000</v>
       </c>
       <c r="I100" s="3">
-        <v>67600</v>
+        <v>68900</v>
       </c>
       <c r="J100" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="K100" s="3">
         <v>4200</v>
@@ -3463,19 +3463,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38700</v>
+        <v>-39400</v>
       </c>
       <c r="E101" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G101" s="3">
-        <v>70700</v>
+        <v>72000</v>
       </c>
       <c r="H101" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -3496,22 +3496,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-165200</v>
+        <v>-168300</v>
       </c>
       <c r="E102" s="3">
-        <v>-258100</v>
+        <v>-262800</v>
       </c>
       <c r="F102" s="3">
-        <v>-164300</v>
+        <v>-167400</v>
       </c>
       <c r="G102" s="3">
-        <v>1588100</v>
+        <v>1617300</v>
       </c>
       <c r="H102" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="I102" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J102" s="3">
         <v>3200</v>
